--- a/docs/Hapcanuino_1-50-0-0-memory.xlsx
+++ b/docs/Hapcanuino_1-50-0-0-memory.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1655">
   <si>
     <t>000000h</t>
   </si>
@@ -4982,6 +4982,15 @@
   </si>
   <si>
     <t>&lt;- Put this into Operator byte</t>
+  </si>
+  <si>
+    <t>BOX no.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>box start address calculator</t>
   </si>
 </sst>
 </file>
@@ -4994,7 +5003,7 @@
     <numFmt numFmtId="166" formatCode="000000"/>
     <numFmt numFmtId="167" formatCode="0\x000000"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5222,8 +5231,37 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5299,6 +5337,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
       </patternFill>
     </fill>
   </fills>
@@ -5541,13 +5584,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5830,6 +5874,34 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="20" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5847,9 +5919,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -5869,21 +5938,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5900,36 +5954,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5983,16 +6007,43 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6002,24 +6053,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6043,7 +6076,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6062,15 +6176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6100,15 +6205,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6127,60 +6223,18 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="20" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="33" fillId="14" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Akcent 6" xfId="4" builtinId="49"/>
     <cellStyle name="Dane wejściowe" xfId="1" builtinId="20"/>
     <cellStyle name="Dane wyjściowe" xfId="2" builtinId="21"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -6507,11 +6561,11 @@
       <c r="E1" s="9"/>
     </row>
     <row r="2" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="126" t="s">
         <v>959</v>
       </c>
       <c r="C2" s="40"/>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="123" t="s">
         <v>952</v>
       </c>
       <c r="E2" s="40"/>
@@ -6519,7 +6573,7 @@
       <c r="H2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="120" t="s">
         <v>267</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -6527,76 +6581,76 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B3" s="114"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="40"/>
-      <c r="D3" s="112"/>
+      <c r="D3" s="124"/>
       <c r="E3" s="40"/>
       <c r="F3" s="41"/>
       <c r="H3" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="I3" s="116"/>
+      <c r="I3" s="120"/>
       <c r="J3" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="4" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B4" s="114"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="40"/>
-      <c r="D4" s="112"/>
+      <c r="D4" s="124"/>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="H4" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="I4" s="116"/>
+      <c r="I4" s="120"/>
       <c r="J4" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B5" s="114"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="40"/>
-      <c r="D5" s="112"/>
+      <c r="D5" s="124"/>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="116"/>
+      <c r="I5" s="120"/>
       <c r="M5" s="28"/>
     </row>
     <row r="6" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B6" s="114"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="40"/>
-      <c r="D6" s="112"/>
+      <c r="D6" s="124"/>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="116"/>
+      <c r="I6" s="120"/>
       <c r="M6" s="28"/>
     </row>
     <row r="7" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B7" s="114"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="40"/>
-      <c r="D7" s="112"/>
+      <c r="D7" s="124"/>
       <c r="E7" s="40"/>
       <c r="F7" s="41"/>
       <c r="H7" s="27"/>
-      <c r="I7" s="116"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="1" t="s">
         <v>328</v>
       </c>
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B8" s="114"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="40"/>
-      <c r="D8" s="112"/>
+      <c r="D8" s="124"/>
       <c r="E8" s="40"/>
       <c r="F8" s="41"/>
       <c r="H8" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="I8" s="123" t="s">
+      <c r="I8" s="121" t="s">
         <v>956</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -6605,131 +6659,131 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B9" s="114"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="40"/>
-      <c r="D9" s="112"/>
+      <c r="D9" s="124"/>
       <c r="E9" s="40"/>
       <c r="F9" s="41"/>
       <c r="H9" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="I9" s="123"/>
+      <c r="I9" s="121"/>
       <c r="J9" s="1" t="s">
         <v>330</v>
       </c>
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B10" s="114"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="40"/>
-      <c r="D10" s="112"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="40"/>
       <c r="F10" s="41"/>
       <c r="H10" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="I10" s="123"/>
+      <c r="I10" s="121"/>
       <c r="J10" s="1" t="s">
         <v>331</v>
       </c>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B11" s="114"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="40"/>
-      <c r="D11" s="112"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="40"/>
       <c r="F11" s="41"/>
       <c r="H11" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="121"/>
       <c r="J11" s="1" t="s">
         <v>332</v>
       </c>
       <c r="M11" s="29"/>
     </row>
     <row r="12" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B12" s="114"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="112"/>
+      <c r="D12" s="124"/>
       <c r="E12" s="40"/>
       <c r="F12" s="41"/>
       <c r="H12" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I12" s="123"/>
+      <c r="I12" s="121"/>
       <c r="J12" s="1" t="s">
         <v>333</v>
       </c>
       <c r="M12" s="29"/>
     </row>
     <row r="13" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B13" s="114"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="40"/>
-      <c r="D13" s="112"/>
+      <c r="D13" s="124"/>
       <c r="E13" s="40"/>
       <c r="F13" s="41"/>
       <c r="H13" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="I13" s="123"/>
+      <c r="I13" s="121"/>
       <c r="J13" s="1" t="s">
         <v>334</v>
       </c>
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B14" s="114"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="40"/>
-      <c r="D14" s="112"/>
+      <c r="D14" s="124"/>
       <c r="E14" s="40"/>
       <c r="F14" s="41"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="123"/>
+      <c r="I14" s="121"/>
       <c r="M14" s="28"/>
     </row>
     <row r="15" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B15" s="114"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="40"/>
-      <c r="D15" s="112"/>
+      <c r="D15" s="124"/>
       <c r="E15" s="40"/>
       <c r="F15" s="41"/>
       <c r="H15" s="15"/>
-      <c r="I15" s="123"/>
+      <c r="I15" s="121"/>
       <c r="M15" s="28"/>
     </row>
     <row r="16" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B16" s="114"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="40"/>
-      <c r="D16" s="112"/>
+      <c r="D16" s="124"/>
       <c r="E16" s="40"/>
       <c r="F16" s="41"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="123"/>
+      <c r="I16" s="121"/>
       <c r="M16" s="28"/>
     </row>
     <row r="17" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B17" s="114"/>
+      <c r="B17" s="126"/>
       <c r="C17" s="40"/>
-      <c r="D17" s="112"/>
+      <c r="D17" s="124"/>
       <c r="E17" s="40"/>
       <c r="F17" s="41"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="123"/>
+      <c r="I17" s="121"/>
       <c r="J17" s="1" t="s">
         <v>259</v>
       </c>
       <c r="M17" s="28"/>
     </row>
     <row r="18" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B18" s="114"/>
+      <c r="B18" s="126"/>
       <c r="C18" s="40"/>
-      <c r="D18" s="112"/>
+      <c r="D18" s="124"/>
       <c r="E18" s="40"/>
       <c r="F18" s="41"/>
       <c r="H18" s="15"/>
-      <c r="I18" s="116" t="s">
+      <c r="I18" s="120" t="s">
         <v>955</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -6737,101 +6791,101 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B19" s="114"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="40"/>
-      <c r="D19" s="112"/>
+      <c r="D19" s="124"/>
       <c r="E19" s="40"/>
       <c r="F19" s="41"/>
       <c r="H19" s="15"/>
-      <c r="I19" s="116"/>
+      <c r="I19" s="120"/>
     </row>
     <row r="20" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B20" s="114"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="40"/>
-      <c r="D20" s="112"/>
+      <c r="D20" s="124"/>
       <c r="E20" s="40"/>
       <c r="F20" s="41"/>
       <c r="H20" s="15"/>
-      <c r="I20" s="116"/>
+      <c r="I20" s="120"/>
     </row>
     <row r="21" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B21" s="114"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="40"/>
-      <c r="D21" s="112"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="40"/>
       <c r="F21" s="41"/>
       <c r="H21" s="15"/>
-      <c r="I21" s="116"/>
+      <c r="I21" s="120"/>
     </row>
     <row r="22" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B22" s="114"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="40"/>
-      <c r="D22" s="112"/>
+      <c r="D22" s="124"/>
       <c r="E22" s="40"/>
       <c r="F22" s="41"/>
       <c r="H22" s="15"/>
-      <c r="I22" s="116"/>
+      <c r="I22" s="120"/>
     </row>
     <row r="23" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B23" s="114"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="40"/>
-      <c r="D23" s="112"/>
+      <c r="D23" s="124"/>
       <c r="E23" s="40"/>
       <c r="F23" s="41"/>
       <c r="H23" s="15"/>
-      <c r="I23" s="116"/>
+      <c r="I23" s="120"/>
     </row>
     <row r="24" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B24" s="114"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="40"/>
-      <c r="D24" s="112"/>
+      <c r="D24" s="124"/>
       <c r="E24" s="40"/>
       <c r="F24" s="41"/>
       <c r="H24" s="15"/>
-      <c r="I24" s="116"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B25" s="114"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="40"/>
-      <c r="D25" s="112"/>
+      <c r="D25" s="124"/>
       <c r="E25" s="40"/>
       <c r="F25" s="41"/>
       <c r="H25" s="15"/>
-      <c r="I25" s="116"/>
+      <c r="I25" s="120"/>
     </row>
     <row r="26" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B26" s="114"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="40"/>
-      <c r="D26" s="112"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="40"/>
       <c r="F26" s="41"/>
       <c r="H26" s="15"/>
-      <c r="I26" s="116"/>
+      <c r="I26" s="120"/>
     </row>
     <row r="27" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B27" s="114"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="40"/>
-      <c r="D27" s="112"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="40"/>
       <c r="F27" s="41"/>
       <c r="H27" s="17"/>
-      <c r="I27" s="116"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="1" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B28" s="114"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="40"/>
-      <c r="D28" s="112"/>
+      <c r="D28" s="124"/>
       <c r="E28" s="40"/>
-      <c r="F28" s="111" t="s">
+      <c r="F28" s="123" t="s">
         <v>891</v>
       </c>
-      <c r="H28" s="124" t="s">
+      <c r="H28" s="117" t="s">
         <v>891</v>
       </c>
-      <c r="I28" s="116" t="s">
+      <c r="I28" s="120" t="s">
         <v>954</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -6839,99 +6893,99 @@
       </c>
     </row>
     <row r="29" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B29" s="114"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="40"/>
-      <c r="D29" s="112"/>
+      <c r="D29" s="124"/>
       <c r="E29" s="40"/>
-      <c r="F29" s="112"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="116"/>
+      <c r="F29" s="124"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="120"/>
     </row>
     <row r="30" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B30" s="114"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="40"/>
-      <c r="D30" s="112"/>
+      <c r="D30" s="124"/>
       <c r="E30" s="40"/>
-      <c r="F30" s="112"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="116"/>
+      <c r="F30" s="124"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="120"/>
     </row>
     <row r="31" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B31" s="114"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="40"/>
-      <c r="D31" s="112"/>
+      <c r="D31" s="124"/>
       <c r="E31" s="40"/>
-      <c r="F31" s="112"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="116"/>
+      <c r="F31" s="124"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="120"/>
     </row>
     <row r="32" spans="2:13" ht="9.9499999999999993" customHeight="1">
-      <c r="B32" s="114"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="40"/>
-      <c r="D32" s="112"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="40"/>
-      <c r="F32" s="112"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="116"/>
+      <c r="F32" s="124"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="120"/>
     </row>
     <row r="33" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B33" s="114"/>
+      <c r="B33" s="126"/>
       <c r="C33" s="40"/>
-      <c r="D33" s="112"/>
+      <c r="D33" s="124"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="112"/>
-      <c r="H33" s="125"/>
-      <c r="I33" s="116"/>
+      <c r="F33" s="124"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="120"/>
     </row>
     <row r="34" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B34" s="114"/>
+      <c r="B34" s="126"/>
       <c r="C34" s="40"/>
-      <c r="D34" s="112"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="40"/>
-      <c r="F34" s="112"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="116"/>
+      <c r="F34" s="124"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="120"/>
     </row>
     <row r="35" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B35" s="114"/>
+      <c r="B35" s="126"/>
       <c r="C35" s="40"/>
-      <c r="D35" s="112"/>
+      <c r="D35" s="124"/>
       <c r="E35" s="40"/>
-      <c r="F35" s="112"/>
-      <c r="H35" s="125"/>
-      <c r="I35" s="116"/>
+      <c r="F35" s="124"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="120"/>
     </row>
     <row r="36" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B36" s="114"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="40"/>
-      <c r="D36" s="112"/>
+      <c r="D36" s="124"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="112"/>
-      <c r="H36" s="125"/>
-      <c r="I36" s="116"/>
+      <c r="F36" s="124"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="120"/>
     </row>
     <row r="37" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B37" s="114"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="40"/>
-      <c r="D37" s="112"/>
+      <c r="D37" s="124"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="112"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="116"/>
+      <c r="F37" s="124"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
       <c r="J37" s="1" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="38" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B38" s="114"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="40"/>
-      <c r="D38" s="112"/>
+      <c r="D38" s="124"/>
       <c r="E38" s="40"/>
-      <c r="F38" s="112"/>
-      <c r="H38" s="124" t="s">
+      <c r="F38" s="124"/>
+      <c r="H38" s="117" t="s">
         <v>891</v>
       </c>
-      <c r="I38" s="123" t="s">
+      <c r="I38" s="121" t="s">
         <v>953</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -6939,117 +6993,117 @@
       </c>
     </row>
     <row r="39" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B39" s="114"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="40"/>
-      <c r="D39" s="112"/>
+      <c r="D39" s="124"/>
       <c r="E39" s="40"/>
-      <c r="F39" s="112"/>
-      <c r="H39" s="125"/>
-      <c r="I39" s="123"/>
+      <c r="F39" s="124"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="121"/>
     </row>
     <row r="40" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B40" s="114"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="40"/>
-      <c r="D40" s="112"/>
+      <c r="D40" s="124"/>
       <c r="E40" s="40"/>
-      <c r="F40" s="112"/>
-      <c r="H40" s="125"/>
-      <c r="I40" s="123"/>
+      <c r="F40" s="124"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="121"/>
     </row>
     <row r="41" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B41" s="114"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="40"/>
-      <c r="D41" s="112"/>
+      <c r="D41" s="124"/>
       <c r="E41" s="40"/>
-      <c r="F41" s="112"/>
-      <c r="H41" s="125"/>
-      <c r="I41" s="123"/>
+      <c r="F41" s="124"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="121"/>
     </row>
     <row r="42" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B42" s="114"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="40"/>
-      <c r="D42" s="112"/>
+      <c r="D42" s="124"/>
       <c r="E42" s="40"/>
-      <c r="F42" s="112"/>
-      <c r="H42" s="125"/>
-      <c r="I42" s="123"/>
+      <c r="F42" s="124"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="121"/>
     </row>
     <row r="43" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B43" s="114"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="40"/>
-      <c r="D43" s="112"/>
+      <c r="D43" s="124"/>
       <c r="E43" s="40"/>
-      <c r="F43" s="112"/>
-      <c r="H43" s="125"/>
-      <c r="I43" s="123"/>
+      <c r="F43" s="124"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="121"/>
     </row>
     <row r="44" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B44" s="114"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="40"/>
-      <c r="D44" s="112"/>
+      <c r="D44" s="124"/>
       <c r="E44" s="40"/>
-      <c r="F44" s="112"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="123"/>
+      <c r="F44" s="124"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="121"/>
     </row>
     <row r="45" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B45" s="114"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="40"/>
-      <c r="D45" s="112"/>
+      <c r="D45" s="124"/>
       <c r="E45" s="40"/>
-      <c r="F45" s="112"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="123"/>
+      <c r="F45" s="124"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B46" s="114"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="40"/>
-      <c r="D46" s="112"/>
+      <c r="D46" s="124"/>
       <c r="E46" s="40"/>
-      <c r="F46" s="112"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="123"/>
+      <c r="F46" s="124"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="121"/>
     </row>
     <row r="47" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B47" s="114"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="40"/>
-      <c r="D47" s="113"/>
+      <c r="D47" s="125"/>
       <c r="E47" s="40"/>
-      <c r="F47" s="113"/>
-      <c r="H47" s="126"/>
-      <c r="I47" s="123"/>
+      <c r="F47" s="125"/>
+      <c r="H47" s="119"/>
+      <c r="I47" s="121"/>
       <c r="J47" s="1" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B48" s="114"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="40"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="41"/>
-      <c r="H48" s="110" t="s">
+      <c r="H48" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I48" s="110"/>
+      <c r="I48" s="122"/>
       <c r="J48" s="1" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B49" s="114"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="40"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="41"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
+      <c r="H49" s="122"/>
+      <c r="I49" s="122"/>
       <c r="J49" s="1" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B50" s="114"/>
+      <c r="B50" s="126"/>
       <c r="C50" s="40"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
@@ -7057,7 +7111,7 @@
       <c r="H50" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="I50" s="117" t="s">
+      <c r="I50" s="128" t="s">
         <v>273</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -7065,7 +7119,7 @@
       </c>
     </row>
     <row r="51" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B51" s="114"/>
+      <c r="B51" s="126"/>
       <c r="C51" s="40"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
@@ -7073,10 +7127,10 @@
       <c r="H51" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="I51" s="118"/>
+      <c r="I51" s="129"/>
     </row>
     <row r="52" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B52" s="114"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="40"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
@@ -7084,10 +7138,10 @@
       <c r="H52" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="I52" s="118"/>
+      <c r="I52" s="129"/>
     </row>
     <row r="53" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B53" s="114"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="40"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
@@ -7095,10 +7149,10 @@
       <c r="H53" s="19" t="s">
         <v>776</v>
       </c>
-      <c r="I53" s="118"/>
+      <c r="I53" s="129"/>
     </row>
     <row r="54" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B54" s="114"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="40"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
@@ -7106,10 +7160,10 @@
       <c r="H54" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I54" s="118"/>
+      <c r="I54" s="129"/>
     </row>
     <row r="55" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B55" s="114"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="40"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
@@ -7117,10 +7171,10 @@
       <c r="H55" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="I55" s="118"/>
+      <c r="I55" s="129"/>
     </row>
     <row r="56" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B56" s="114"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="40"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
@@ -7128,10 +7182,10 @@
       <c r="H56" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="I56" s="118"/>
+      <c r="I56" s="129"/>
     </row>
     <row r="57" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B57" s="114"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="40"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -7139,39 +7193,39 @@
       <c r="H57" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="I57" s="119"/>
+      <c r="I57" s="130"/>
       <c r="J57" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="58" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B58" s="114"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="40"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="41"/>
-      <c r="H58" s="110" t="s">
+      <c r="H58" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I58" s="110"/>
+      <c r="I58" s="122"/>
       <c r="J58" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="59" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B59" s="114"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="40"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="41"/>
-      <c r="H59" s="110"/>
-      <c r="I59" s="110"/>
+      <c r="H59" s="122"/>
+      <c r="I59" s="122"/>
       <c r="J59" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="60" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B60" s="114"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="40"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -7179,7 +7233,7 @@
       <c r="H60" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="I60" s="120" t="s">
+      <c r="I60" s="131" t="s">
         <v>253</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -7187,7 +7241,7 @@
       </c>
     </row>
     <row r="61" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B61" s="114"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="40"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -7195,10 +7249,10 @@
       <c r="H61" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="I61" s="121"/>
+      <c r="I61" s="132"/>
     </row>
     <row r="62" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B62" s="114"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="40"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -7206,10 +7260,10 @@
       <c r="H62" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="I62" s="121"/>
+      <c r="I62" s="132"/>
     </row>
     <row r="63" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B63" s="114"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="40"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -7217,10 +7271,10 @@
       <c r="H63" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="I63" s="121"/>
+      <c r="I63" s="132"/>
     </row>
     <row r="64" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B64" s="114"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="40"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -7228,10 +7282,10 @@
       <c r="H64" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="I64" s="121"/>
+      <c r="I64" s="132"/>
     </row>
     <row r="65" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B65" s="114"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="40"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -7239,10 +7293,10 @@
       <c r="H65" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="121"/>
+      <c r="I65" s="132"/>
     </row>
     <row r="66" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B66" s="114"/>
+      <c r="B66" s="126"/>
       <c r="C66" s="40"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -7250,10 +7304,10 @@
       <c r="H66" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="I66" s="121"/>
+      <c r="I66" s="132"/>
     </row>
     <row r="67" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B67" s="114"/>
+      <c r="B67" s="126"/>
       <c r="C67" s="40"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -7261,10 +7315,10 @@
       <c r="H67" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I67" s="121"/>
+      <c r="I67" s="132"/>
     </row>
     <row r="68" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B68" s="114"/>
+      <c r="B68" s="126"/>
       <c r="C68" s="40"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -7272,10 +7326,10 @@
       <c r="H68" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="I68" s="121"/>
+      <c r="I68" s="132"/>
     </row>
     <row r="69" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B69" s="114"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="40"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -7283,10 +7337,10 @@
       <c r="H69" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="I69" s="121"/>
+      <c r="I69" s="132"/>
     </row>
     <row r="70" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B70" s="114"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="40"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -7294,10 +7348,10 @@
       <c r="H70" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="I70" s="121"/>
+      <c r="I70" s="132"/>
     </row>
     <row r="71" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B71" s="114"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="40"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
@@ -7305,39 +7359,39 @@
       <c r="H71" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="I71" s="122"/>
+      <c r="I71" s="133"/>
       <c r="J71" s="1" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="72" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B72" s="114"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="40"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="41"/>
-      <c r="H72" s="110" t="s">
+      <c r="H72" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I72" s="110"/>
+      <c r="I72" s="122"/>
       <c r="J72" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="73" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B73" s="114"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="40"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="41"/>
-      <c r="H73" s="110"/>
-      <c r="I73" s="110"/>
+      <c r="H73" s="122"/>
+      <c r="I73" s="122"/>
       <c r="J73" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="74" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B74" s="114"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="40"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -7345,7 +7399,7 @@
       <c r="H74" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="I74" s="117" t="s">
+      <c r="I74" s="128" t="s">
         <v>262</v>
       </c>
       <c r="J74" s="1" t="s">
@@ -7353,7 +7407,7 @@
       </c>
     </row>
     <row r="75" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B75" s="114"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="40"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -7361,7 +7415,7 @@
       <c r="H75" s="20" t="s">
         <v>288</v>
       </c>
-      <c r="I75" s="119"/>
+      <c r="I75" s="130"/>
       <c r="J75" s="1" t="s">
         <v>252</v>
       </c>
@@ -7372,10 +7426,10 @@
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="F76" s="41"/>
-      <c r="H76" s="110" t="s">
+      <c r="H76" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="I76" s="110"/>
+      <c r="I76" s="122"/>
       <c r="J76" s="1" t="s">
         <v>957</v>
       </c>
@@ -7386,24 +7440,24 @@
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="F77" s="41"/>
-      <c r="H77" s="110"/>
-      <c r="I77" s="110"/>
+      <c r="H77" s="122"/>
+      <c r="I77" s="122"/>
       <c r="J77" s="1" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="78" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B78" s="114" t="s">
+      <c r="B78" s="126" t="s">
         <v>254</v>
       </c>
       <c r="C78" s="40"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="F78" s="41"/>
-      <c r="H78" s="115" t="s">
+      <c r="H78" s="127" t="s">
         <v>891</v>
       </c>
-      <c r="I78" s="116" t="s">
+      <c r="I78" s="120" t="s">
         <v>960</v>
       </c>
       <c r="J78" s="1" t="s">
@@ -7411,43 +7465,43 @@
       </c>
     </row>
     <row r="79" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B79" s="114"/>
+      <c r="B79" s="126"/>
       <c r="C79" s="40"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="F79" s="41"/>
-      <c r="H79" s="115"/>
-      <c r="I79" s="116"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="120"/>
     </row>
     <row r="80" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B80" s="114"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="116"/>
+      <c r="B80" s="126"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="120"/>
     </row>
     <row r="81" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B81" s="114"/>
-      <c r="H81" s="115"/>
-      <c r="I81" s="116"/>
+      <c r="B81" s="126"/>
+      <c r="H81" s="127"/>
+      <c r="I81" s="120"/>
     </row>
     <row r="82" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B82" s="114"/>
-      <c r="H82" s="115"/>
-      <c r="I82" s="116"/>
+      <c r="B82" s="126"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="120"/>
     </row>
     <row r="83" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B83" s="114"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="116"/>
+      <c r="B83" s="126"/>
+      <c r="H83" s="127"/>
+      <c r="I83" s="120"/>
     </row>
     <row r="84" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B84" s="114"/>
-      <c r="H84" s="115"/>
-      <c r="I84" s="116"/>
+      <c r="B84" s="126"/>
+      <c r="H84" s="127"/>
+      <c r="I84" s="120"/>
     </row>
     <row r="85" spans="2:10" ht="9.9499999999999993" customHeight="1">
-      <c r="B85" s="114"/>
-      <c r="H85" s="115"/>
-      <c r="I85" s="116"/>
+      <c r="B85" s="126"/>
+      <c r="H85" s="127"/>
+      <c r="I85" s="120"/>
       <c r="J85" s="1" t="s">
         <v>775</v>
       </c>
@@ -7733,11 +7787,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H28:H37"/>
-    <mergeCell ref="I28:I37"/>
-    <mergeCell ref="H38:H47"/>
-    <mergeCell ref="I38:I47"/>
-    <mergeCell ref="H76:I77"/>
     <mergeCell ref="D2:D47"/>
     <mergeCell ref="B78:B85"/>
     <mergeCell ref="H78:H85"/>
@@ -7753,6 +7802,11 @@
     <mergeCell ref="I8:I17"/>
     <mergeCell ref="I18:I27"/>
     <mergeCell ref="F28:F47"/>
+    <mergeCell ref="H28:H37"/>
+    <mergeCell ref="I28:I37"/>
+    <mergeCell ref="H38:H47"/>
+    <mergeCell ref="I38:I47"/>
+    <mergeCell ref="H76:I77"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="88" orientation="portrait" r:id="rId1"/>
@@ -7850,86 +7904,86 @@
         <f>DEC2HEX(HEX2DEC("008000"),6)</f>
         <v>008000</v>
       </c>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="140" t="s">
         <v>1419</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="145"/>
-      <c r="K5" s="145"/>
-      <c r="L5" s="145"/>
-      <c r="M5" s="145"/>
-      <c r="N5" s="145"/>
-      <c r="O5" s="145"/>
-      <c r="P5" s="145"/>
-      <c r="Q5" s="146"/>
+      <c r="C5" s="141"/>
+      <c r="D5" s="141"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="141"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="141"/>
+      <c r="J5" s="141"/>
+      <c r="K5" s="141"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="141"/>
+      <c r="N5" s="141"/>
+      <c r="O5" s="141"/>
+      <c r="P5" s="141"/>
+      <c r="Q5" s="142"/>
       <c r="R5" s="88" t="str">
         <f>DEC2HEX(HEX2DEC("00800F"),6)</f>
         <v>00800F</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="12.95" customHeight="1">
-      <c r="B6" s="147"/>
-      <c r="C6" s="148"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="148"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="148"/>
-      <c r="I6" s="148"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="148"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="148"/>
-      <c r="N6" s="148"/>
-      <c r="O6" s="148"/>
-      <c r="P6" s="148"/>
-      <c r="Q6" s="149"/>
+      <c r="B6" s="143"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
+      <c r="I6" s="144"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="144"/>
+      <c r="L6" s="144"/>
+      <c r="M6" s="144"/>
+      <c r="N6" s="144"/>
+      <c r="O6" s="144"/>
+      <c r="P6" s="144"/>
+      <c r="Q6" s="145"/>
     </row>
     <row r="7" spans="1:19" ht="12.95" customHeight="1">
-      <c r="B7" s="147"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
-      <c r="J7" s="148"/>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="148"/>
-      <c r="Q7" s="149"/>
+      <c r="B7" s="143"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="144"/>
+      <c r="G7" s="144"/>
+      <c r="H7" s="144"/>
+      <c r="I7" s="144"/>
+      <c r="J7" s="144"/>
+      <c r="K7" s="144"/>
+      <c r="L7" s="144"/>
+      <c r="M7" s="144"/>
+      <c r="N7" s="144"/>
+      <c r="O7" s="144"/>
+      <c r="P7" s="144"/>
+      <c r="Q7" s="145"/>
     </row>
     <row r="8" spans="1:19" ht="12.95" customHeight="1">
       <c r="A8" s="87" t="str">
         <f>DEC2HEX(HEX2DEC(A5)+1008,6)</f>
         <v>0083F0</v>
       </c>
-      <c r="B8" s="150"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="151"/>
-      <c r="H8" s="151"/>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="151"/>
-      <c r="L8" s="151"/>
-      <c r="M8" s="151"/>
-      <c r="N8" s="151"/>
-      <c r="O8" s="151"/>
-      <c r="P8" s="151"/>
-      <c r="Q8" s="152"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
       <c r="R8" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R5)+1008,6)</f>
         <v>0083FF</v>
@@ -7940,24 +7994,24 @@
         <f>DEC2HEX(HEX2DEC(A8)+16,6)</f>
         <v>008400</v>
       </c>
-      <c r="B9" s="144" t="s">
+      <c r="B9" s="140" t="s">
         <v>1420</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="145"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="145"/>
-      <c r="Q9" s="146"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="141"/>
+      <c r="H9" s="141"/>
+      <c r="I9" s="141"/>
+      <c r="J9" s="141"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="141"/>
+      <c r="Q9" s="142"/>
       <c r="R9" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R8)+16,6)</f>
         <v>00840F</v>
@@ -7965,42 +8019,42 @@
     </row>
     <row r="10" spans="1:19" ht="12.95" customHeight="1">
       <c r="A10" s="2"/>
-      <c r="B10" s="147"/>
-      <c r="C10" s="148"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="148"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="148"/>
-      <c r="N10" s="148"/>
-      <c r="O10" s="148"/>
-      <c r="P10" s="148"/>
-      <c r="Q10" s="149"/>
+      <c r="B10" s="143"/>
+      <c r="C10" s="144"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
+      <c r="H10" s="144"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="144"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="145"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="12.95" customHeight="1">
       <c r="A11" s="2"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="148"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="148"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="148"/>
-      <c r="N11" s="148"/>
-      <c r="O11" s="148"/>
-      <c r="P11" s="148"/>
-      <c r="Q11" s="149"/>
+      <c r="B11" s="143"/>
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="144"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="145"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="12.95" customHeight="1">
@@ -8008,22 +8062,22 @@
         <f>DEC2HEX(HEX2DEC(A9)+1008,6)</f>
         <v>0087F0</v>
       </c>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="151"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="151"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="151"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="151"/>
-      <c r="Q12" s="152"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="147"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="147"/>
+      <c r="N12" s="147"/>
+      <c r="O12" s="147"/>
+      <c r="P12" s="147"/>
+      <c r="Q12" s="148"/>
       <c r="R12" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R9)+1008,6)</f>
         <v>0087FF</v>
@@ -8034,24 +8088,24 @@
         <f>DEC2HEX(HEX2DEC(A12)+16,6)</f>
         <v>008800</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="149" t="s">
         <v>1421</v>
       </c>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="154"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="154"/>
-      <c r="O13" s="154"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="155"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="150"/>
+      <c r="H13" s="150"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="150"/>
+      <c r="O13" s="150"/>
+      <c r="P13" s="150"/>
+      <c r="Q13" s="151"/>
       <c r="R13" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R12)+16,6)</f>
         <v>00880F</v>
@@ -8062,22 +8116,22 @@
         <f>DEC2HEX(HEX2DEC(A13)+16,6)</f>
         <v>008810</v>
       </c>
-      <c r="B14" s="156"/>
-      <c r="C14" s="157"/>
-      <c r="D14" s="157"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="157"/>
-      <c r="H14" s="157"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="157"/>
-      <c r="K14" s="157"/>
-      <c r="L14" s="157"/>
-      <c r="M14" s="157"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="158"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="153"/>
+      <c r="Q14" s="154"/>
       <c r="R14" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R13)+16,6)</f>
         <v>00881F</v>
@@ -8088,24 +8142,24 @@
         <f t="shared" ref="A15:A28" si="0">DEC2HEX(HEX2DEC(A14)+16,6)</f>
         <v>008820</v>
       </c>
-      <c r="B15" s="144" t="s">
+      <c r="B15" s="140" t="s">
         <v>1422</v>
       </c>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="145"/>
-      <c r="Q15" s="146"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="141"/>
+      <c r="Q15" s="142"/>
       <c r="R15" s="88" t="str">
         <f t="shared" ref="R15:R28" si="1">DEC2HEX(HEX2DEC(R14)+16,6)</f>
         <v>00882F</v>
@@ -8116,22 +8170,22 @@
         <f t="shared" si="0"/>
         <v>008830</v>
       </c>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="151"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="151"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="151"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="151"/>
-      <c r="Q16" s="152"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="148"/>
       <c r="R16" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00883F</v>
@@ -8142,24 +8196,24 @@
         <f t="shared" si="0"/>
         <v>008840</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="149" t="s">
         <v>1423</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="154"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="154"/>
-      <c r="O17" s="154"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="155"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
+      <c r="L17" s="150"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="150"/>
+      <c r="O17" s="150"/>
+      <c r="P17" s="150"/>
+      <c r="Q17" s="151"/>
       <c r="R17" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00884F</v>
@@ -8170,22 +8224,22 @@
         <f t="shared" si="0"/>
         <v>008850</v>
       </c>
-      <c r="B18" s="156"/>
-      <c r="C18" s="157"/>
-      <c r="D18" s="157"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="157"/>
-      <c r="H18" s="157"/>
-      <c r="I18" s="157"/>
-      <c r="J18" s="157"/>
-      <c r="K18" s="157"/>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="158"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="153"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="153"/>
+      <c r="Q18" s="154"/>
       <c r="R18" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00885F</v>
@@ -8196,24 +8250,24 @@
         <f t="shared" si="0"/>
         <v>008860</v>
       </c>
-      <c r="B19" s="144" t="s">
+      <c r="B19" s="140" t="s">
         <v>1424</v>
       </c>
-      <c r="C19" s="145"/>
-      <c r="D19" s="145"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="145"/>
-      <c r="Q19" s="146"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="141"/>
+      <c r="Q19" s="142"/>
       <c r="R19" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00886F</v>
@@ -8225,22 +8279,22 @@
         <f t="shared" si="0"/>
         <v>008870</v>
       </c>
-      <c r="B20" s="150"/>
-      <c r="C20" s="151"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="151"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="151"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="151"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="151"/>
-      <c r="Q20" s="152"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="147"/>
+      <c r="Q20" s="148"/>
       <c r="R20" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00887F</v>
@@ -8251,24 +8305,24 @@
         <f t="shared" si="0"/>
         <v>008880</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="149" t="s">
         <v>1425</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="154"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="154"/>
-      <c r="K21" s="154"/>
-      <c r="L21" s="154"/>
-      <c r="M21" s="154"/>
-      <c r="N21" s="154"/>
-      <c r="O21" s="154"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="155"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="150"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="150"/>
+      <c r="I21" s="150"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="150"/>
+      <c r="L21" s="150"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="150"/>
+      <c r="O21" s="150"/>
+      <c r="P21" s="150"/>
+      <c r="Q21" s="151"/>
       <c r="R21" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00888F</v>
@@ -8279,22 +8333,22 @@
         <f t="shared" si="0"/>
         <v>008890</v>
       </c>
-      <c r="B22" s="156"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="158"/>
+      <c r="B22" s="152"/>
+      <c r="C22" s="153"/>
+      <c r="D22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="153"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="153"/>
+      <c r="O22" s="153"/>
+      <c r="P22" s="153"/>
+      <c r="Q22" s="154"/>
       <c r="R22" s="88" t="str">
         <f t="shared" si="1"/>
         <v>00889F</v>
@@ -8305,24 +8359,24 @@
         <f t="shared" si="0"/>
         <v>0088A0</v>
       </c>
-      <c r="B23" s="144" t="s">
+      <c r="B23" s="140" t="s">
         <v>1426</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="145"/>
-      <c r="Q23" s="146"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="141"/>
+      <c r="Q23" s="142"/>
       <c r="R23" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088AF</v>
@@ -8333,22 +8387,22 @@
         <f t="shared" si="0"/>
         <v>0088B0</v>
       </c>
-      <c r="B24" s="150"/>
-      <c r="C24" s="151"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="151"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="151"/>
-      <c r="Q24" s="152"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="147"/>
+      <c r="Q24" s="148"/>
       <c r="R24" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088BF</v>
@@ -8359,24 +8413,24 @@
         <f t="shared" si="0"/>
         <v>0088C0</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="149" t="s">
         <v>1427</v>
       </c>
-      <c r="C25" s="154"/>
-      <c r="D25" s="154"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-      <c r="L25" s="154"/>
-      <c r="M25" s="154"/>
-      <c r="N25" s="154"/>
-      <c r="O25" s="154"/>
-      <c r="P25" s="154"/>
-      <c r="Q25" s="155"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="150"/>
+      <c r="O25" s="150"/>
+      <c r="P25" s="150"/>
+      <c r="Q25" s="151"/>
       <c r="R25" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088CF</v>
@@ -8387,22 +8441,22 @@
         <f t="shared" si="0"/>
         <v>0088D0</v>
       </c>
-      <c r="B26" s="156"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="158"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="153"/>
+      <c r="L26" s="153"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="153"/>
+      <c r="O26" s="153"/>
+      <c r="P26" s="153"/>
+      <c r="Q26" s="154"/>
       <c r="R26" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088DF</v>
@@ -8413,24 +8467,24 @@
         <f t="shared" si="0"/>
         <v>0088E0</v>
       </c>
-      <c r="B27" s="144" t="s">
+      <c r="B27" s="140" t="s">
         <v>1428</v>
       </c>
-      <c r="C27" s="145"/>
-      <c r="D27" s="145"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="145"/>
-      <c r="Q27" s="146"/>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="141"/>
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="141"/>
+      <c r="Q27" s="142"/>
       <c r="R27" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088EF</v>
@@ -8441,38 +8495,38 @@
         <f t="shared" si="0"/>
         <v>0088F0</v>
       </c>
-      <c r="B28" s="150"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="151"/>
-      <c r="G28" s="151"/>
-      <c r="H28" s="151"/>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="151"/>
-      <c r="N28" s="151"/>
-      <c r="O28" s="151"/>
-      <c r="P28" s="151"/>
-      <c r="Q28" s="152"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="147"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="147"/>
+      <c r="H28" s="147"/>
+      <c r="I28" s="147"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="147"/>
+      <c r="L28" s="147"/>
+      <c r="M28" s="147"/>
+      <c r="N28" s="147"/>
+      <c r="O28" s="147"/>
+      <c r="P28" s="147"/>
+      <c r="Q28" s="148"/>
       <c r="R28" s="88" t="str">
         <f t="shared" si="1"/>
         <v>0088FF</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="12.95" customHeight="1">
-      <c r="I29" s="159" t="s">
+      <c r="I29" s="155" t="s">
         <v>1410</v>
       </c>
-      <c r="J29" s="159"/>
+      <c r="J29" s="155"/>
       <c r="R29" s="12"/>
     </row>
     <row r="30" spans="1:19" ht="12.95" customHeight="1">
       <c r="A30" s="8"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="156"/>
       <c r="R30" s="12"/>
     </row>
     <row r="31" spans="1:19" ht="12.95" customHeight="1">
@@ -8480,24 +8534,24 @@
         <f>DEC2HEX(HEX2DEC(A28)+3824,6)</f>
         <v>0097E0</v>
       </c>
-      <c r="B31" s="144" t="s">
+      <c r="B31" s="140" t="s">
         <v>1429</v>
       </c>
-      <c r="C31" s="145"/>
-      <c r="D31" s="145"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="145"/>
-      <c r="Q31" s="146"/>
+      <c r="C31" s="141"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="141"/>
+      <c r="Q31" s="142"/>
       <c r="R31" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R28)+3824,6)</f>
         <v>0097EF</v>
@@ -8508,22 +8562,22 @@
         <f>DEC2HEX(HEX2DEC(A31)+16,6)</f>
         <v>0097F0</v>
       </c>
-      <c r="B32" s="150"/>
-      <c r="C32" s="151"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="151"/>
-      <c r="I32" s="151"/>
-      <c r="J32" s="151"/>
-      <c r="K32" s="151"/>
-      <c r="L32" s="151"/>
-      <c r="M32" s="151"/>
-      <c r="N32" s="151"/>
-      <c r="O32" s="151"/>
-      <c r="P32" s="151"/>
-      <c r="Q32" s="152"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
+      <c r="Q32" s="148"/>
       <c r="R32" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R31)+16,6)</f>
         <v>0097FF</v>
@@ -8571,24 +8625,24 @@
         <f>DEC2HEX(HEX2DEC("008400"),6)</f>
         <v>008400</v>
       </c>
-      <c r="B37" s="128" t="s">
+      <c r="B37" s="134" t="s">
         <v>1530</v>
       </c>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="129"/>
-      <c r="K37" s="129"/>
-      <c r="L37" s="129"/>
-      <c r="M37" s="129"/>
-      <c r="N37" s="129"/>
-      <c r="O37" s="129"/>
-      <c r="P37" s="129"/>
-      <c r="Q37" s="130"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="135"/>
+      <c r="L37" s="135"/>
+      <c r="M37" s="135"/>
+      <c r="N37" s="135"/>
+      <c r="O37" s="135"/>
+      <c r="P37" s="135"/>
+      <c r="Q37" s="136"/>
       <c r="R37" s="88" t="str">
         <f>DEC2HEX(HEX2DEC("00840F"),6)</f>
         <v>00840F</v>
@@ -8599,22 +8653,22 @@
         <f>DEC2HEX(HEX2DEC(A37)+16,6)</f>
         <v>008410</v>
       </c>
-      <c r="B38" s="131"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="132"/>
-      <c r="E38" s="132"/>
-      <c r="F38" s="132"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="132"/>
-      <c r="J38" s="132"/>
-      <c r="K38" s="132"/>
-      <c r="L38" s="132"/>
-      <c r="M38" s="132"/>
-      <c r="N38" s="132"/>
-      <c r="O38" s="132"/>
-      <c r="P38" s="132"/>
-      <c r="Q38" s="133"/>
+      <c r="B38" s="137"/>
+      <c r="C38" s="138"/>
+      <c r="D38" s="138"/>
+      <c r="E38" s="138"/>
+      <c r="F38" s="138"/>
+      <c r="G38" s="138"/>
+      <c r="H38" s="138"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="138"/>
+      <c r="L38" s="138"/>
+      <c r="M38" s="138"/>
+      <c r="N38" s="138"/>
+      <c r="O38" s="138"/>
+      <c r="P38" s="138"/>
+      <c r="Q38" s="139"/>
       <c r="R38" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R37)+16,6)</f>
         <v>00841F</v>
@@ -8625,24 +8679,24 @@
         <f t="shared" ref="A39:A52" si="2">DEC2HEX(HEX2DEC(A38)+16,6)</f>
         <v>008420</v>
       </c>
-      <c r="B39" s="128" t="s">
+      <c r="B39" s="134" t="s">
         <v>1531</v>
       </c>
-      <c r="C39" s="129"/>
-      <c r="D39" s="129"/>
-      <c r="E39" s="129"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="129"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="129"/>
-      <c r="L39" s="129"/>
-      <c r="M39" s="129"/>
-      <c r="N39" s="129"/>
-      <c r="O39" s="129"/>
-      <c r="P39" s="129"/>
-      <c r="Q39" s="130"/>
+      <c r="C39" s="135"/>
+      <c r="D39" s="135"/>
+      <c r="E39" s="135"/>
+      <c r="F39" s="135"/>
+      <c r="G39" s="135"/>
+      <c r="H39" s="135"/>
+      <c r="I39" s="135"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="135"/>
+      <c r="L39" s="135"/>
+      <c r="M39" s="135"/>
+      <c r="N39" s="135"/>
+      <c r="O39" s="135"/>
+      <c r="P39" s="135"/>
+      <c r="Q39" s="136"/>
       <c r="R39" s="88" t="str">
         <f t="shared" ref="R39:R52" si="3">DEC2HEX(HEX2DEC(R38)+16,6)</f>
         <v>00842F</v>
@@ -8653,22 +8707,22 @@
         <f t="shared" si="2"/>
         <v>008430</v>
       </c>
-      <c r="B40" s="131"/>
-      <c r="C40" s="132"/>
-      <c r="D40" s="132"/>
-      <c r="E40" s="132"/>
-      <c r="F40" s="132"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="132"/>
-      <c r="I40" s="132"/>
-      <c r="J40" s="132"/>
-      <c r="K40" s="132"/>
-      <c r="L40" s="132"/>
-      <c r="M40" s="132"/>
-      <c r="N40" s="132"/>
-      <c r="O40" s="132"/>
-      <c r="P40" s="132"/>
-      <c r="Q40" s="133"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="138"/>
+      <c r="J40" s="138"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="138"/>
+      <c r="M40" s="138"/>
+      <c r="N40" s="138"/>
+      <c r="O40" s="138"/>
+      <c r="P40" s="138"/>
+      <c r="Q40" s="139"/>
       <c r="R40" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00843F</v>
@@ -8679,24 +8733,24 @@
         <f t="shared" si="2"/>
         <v>008440</v>
       </c>
-      <c r="B41" s="128" t="s">
+      <c r="B41" s="134" t="s">
         <v>1532</v>
       </c>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="129"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="129"/>
-      <c r="H41" s="129"/>
-      <c r="I41" s="129"/>
-      <c r="J41" s="129"/>
-      <c r="K41" s="129"/>
-      <c r="L41" s="129"/>
-      <c r="M41" s="129"/>
-      <c r="N41" s="129"/>
-      <c r="O41" s="129"/>
-      <c r="P41" s="129"/>
-      <c r="Q41" s="130"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="135"/>
+      <c r="G41" s="135"/>
+      <c r="H41" s="135"/>
+      <c r="I41" s="135"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="135"/>
+      <c r="L41" s="135"/>
+      <c r="M41" s="135"/>
+      <c r="N41" s="135"/>
+      <c r="O41" s="135"/>
+      <c r="P41" s="135"/>
+      <c r="Q41" s="136"/>
       <c r="R41" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00844F</v>
@@ -8707,22 +8761,22 @@
         <f t="shared" si="2"/>
         <v>008450</v>
       </c>
-      <c r="B42" s="131"/>
-      <c r="C42" s="132"/>
-      <c r="D42" s="132"/>
-      <c r="E42" s="132"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="132"/>
-      <c r="I42" s="132"/>
-      <c r="J42" s="132"/>
-      <c r="K42" s="132"/>
-      <c r="L42" s="132"/>
-      <c r="M42" s="132"/>
-      <c r="N42" s="132"/>
-      <c r="O42" s="132"/>
-      <c r="P42" s="132"/>
-      <c r="Q42" s="133"/>
+      <c r="B42" s="137"/>
+      <c r="C42" s="138"/>
+      <c r="D42" s="138"/>
+      <c r="E42" s="138"/>
+      <c r="F42" s="138"/>
+      <c r="G42" s="138"/>
+      <c r="H42" s="138"/>
+      <c r="I42" s="138"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="138"/>
+      <c r="P42" s="138"/>
+      <c r="Q42" s="139"/>
       <c r="R42" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00845F</v>
@@ -8733,24 +8787,24 @@
         <f t="shared" si="2"/>
         <v>008460</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="134" t="s">
         <v>1533</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="129"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="129"/>
-      <c r="H43" s="129"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="129"/>
-      <c r="K43" s="129"/>
-      <c r="L43" s="129"/>
-      <c r="M43" s="129"/>
-      <c r="N43" s="129"/>
-      <c r="O43" s="129"/>
-      <c r="P43" s="129"/>
-      <c r="Q43" s="130"/>
+      <c r="C43" s="135"/>
+      <c r="D43" s="135"/>
+      <c r="E43" s="135"/>
+      <c r="F43" s="135"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="135"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="135"/>
+      <c r="P43" s="135"/>
+      <c r="Q43" s="136"/>
       <c r="R43" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00846F</v>
@@ -8761,22 +8815,22 @@
         <f t="shared" si="2"/>
         <v>008470</v>
       </c>
-      <c r="B44" s="131"/>
-      <c r="C44" s="132"/>
-      <c r="D44" s="132"/>
-      <c r="E44" s="132"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="132"/>
-      <c r="K44" s="132"/>
-      <c r="L44" s="132"/>
-      <c r="M44" s="132"/>
-      <c r="N44" s="132"/>
-      <c r="O44" s="132"/>
-      <c r="P44" s="132"/>
-      <c r="Q44" s="133"/>
+      <c r="B44" s="137"/>
+      <c r="C44" s="138"/>
+      <c r="D44" s="138"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="138"/>
+      <c r="G44" s="138"/>
+      <c r="H44" s="138"/>
+      <c r="I44" s="138"/>
+      <c r="J44" s="138"/>
+      <c r="K44" s="138"/>
+      <c r="L44" s="138"/>
+      <c r="M44" s="138"/>
+      <c r="N44" s="138"/>
+      <c r="O44" s="138"/>
+      <c r="P44" s="138"/>
+      <c r="Q44" s="139"/>
       <c r="R44" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00847F</v>
@@ -8787,24 +8841,24 @@
         <f t="shared" si="2"/>
         <v>008480</v>
       </c>
-      <c r="B45" s="128" t="s">
+      <c r="B45" s="134" t="s">
         <v>1534</v>
       </c>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="129"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="129"/>
-      <c r="I45" s="129"/>
-      <c r="J45" s="129"/>
-      <c r="K45" s="129"/>
-      <c r="L45" s="129"/>
-      <c r="M45" s="129"/>
-      <c r="N45" s="129"/>
-      <c r="O45" s="129"/>
-      <c r="P45" s="129"/>
-      <c r="Q45" s="130"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="135"/>
+      <c r="F45" s="135"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="135"/>
+      <c r="I45" s="135"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="135"/>
+      <c r="L45" s="135"/>
+      <c r="M45" s="135"/>
+      <c r="N45" s="135"/>
+      <c r="O45" s="135"/>
+      <c r="P45" s="135"/>
+      <c r="Q45" s="136"/>
       <c r="R45" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00848F</v>
@@ -8815,22 +8869,22 @@
         <f t="shared" si="2"/>
         <v>008490</v>
       </c>
-      <c r="B46" s="131"/>
-      <c r="C46" s="132"/>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="133"/>
+      <c r="B46" s="137"/>
+      <c r="C46" s="138"/>
+      <c r="D46" s="138"/>
+      <c r="E46" s="138"/>
+      <c r="F46" s="138"/>
+      <c r="G46" s="138"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="138"/>
+      <c r="J46" s="138"/>
+      <c r="K46" s="138"/>
+      <c r="L46" s="138"/>
+      <c r="M46" s="138"/>
+      <c r="N46" s="138"/>
+      <c r="O46" s="138"/>
+      <c r="P46" s="138"/>
+      <c r="Q46" s="139"/>
       <c r="R46" s="88" t="str">
         <f t="shared" si="3"/>
         <v>00849F</v>
@@ -8841,24 +8895,24 @@
         <f t="shared" si="2"/>
         <v>0084A0</v>
       </c>
-      <c r="B47" s="128" t="s">
+      <c r="B47" s="134" t="s">
         <v>1535</v>
       </c>
-      <c r="C47" s="129"/>
-      <c r="D47" s="129"/>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="129"/>
-      <c r="L47" s="129"/>
-      <c r="M47" s="129"/>
-      <c r="N47" s="129"/>
-      <c r="O47" s="129"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="130"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="135"/>
+      <c r="E47" s="135"/>
+      <c r="F47" s="135"/>
+      <c r="G47" s="135"/>
+      <c r="H47" s="135"/>
+      <c r="I47" s="135"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="135"/>
+      <c r="L47" s="135"/>
+      <c r="M47" s="135"/>
+      <c r="N47" s="135"/>
+      <c r="O47" s="135"/>
+      <c r="P47" s="135"/>
+      <c r="Q47" s="136"/>
       <c r="R47" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084AF</v>
@@ -8869,22 +8923,22 @@
         <f t="shared" si="2"/>
         <v>0084B0</v>
       </c>
-      <c r="B48" s="131"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="133"/>
+      <c r="B48" s="137"/>
+      <c r="C48" s="138"/>
+      <c r="D48" s="138"/>
+      <c r="E48" s="138"/>
+      <c r="F48" s="138"/>
+      <c r="G48" s="138"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="138"/>
+      <c r="J48" s="138"/>
+      <c r="K48" s="138"/>
+      <c r="L48" s="138"/>
+      <c r="M48" s="138"/>
+      <c r="N48" s="138"/>
+      <c r="O48" s="138"/>
+      <c r="P48" s="138"/>
+      <c r="Q48" s="139"/>
       <c r="R48" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084BF</v>
@@ -8895,24 +8949,24 @@
         <f t="shared" si="2"/>
         <v>0084C0</v>
       </c>
-      <c r="B49" s="128" t="s">
+      <c r="B49" s="134" t="s">
         <v>1551</v>
       </c>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="129"/>
-      <c r="L49" s="129"/>
-      <c r="M49" s="129"/>
-      <c r="N49" s="129"/>
-      <c r="O49" s="129"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="130"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="135"/>
+      <c r="H49" s="135"/>
+      <c r="I49" s="135"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="135"/>
+      <c r="L49" s="135"/>
+      <c r="M49" s="135"/>
+      <c r="N49" s="135"/>
+      <c r="O49" s="135"/>
+      <c r="P49" s="135"/>
+      <c r="Q49" s="136"/>
       <c r="R49" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084CF</v>
@@ -8923,22 +8977,22 @@
         <f t="shared" si="2"/>
         <v>0084D0</v>
       </c>
-      <c r="B50" s="131"/>
-      <c r="C50" s="132"/>
-      <c r="D50" s="132"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="132"/>
-      <c r="L50" s="132"/>
-      <c r="M50" s="132"/>
-      <c r="N50" s="132"/>
-      <c r="O50" s="132"/>
-      <c r="P50" s="132"/>
-      <c r="Q50" s="133"/>
+      <c r="B50" s="137"/>
+      <c r="C50" s="138"/>
+      <c r="D50" s="138"/>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="138"/>
+      <c r="H50" s="138"/>
+      <c r="I50" s="138"/>
+      <c r="J50" s="138"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="138"/>
+      <c r="M50" s="138"/>
+      <c r="N50" s="138"/>
+      <c r="O50" s="138"/>
+      <c r="P50" s="138"/>
+      <c r="Q50" s="139"/>
       <c r="R50" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084DF</v>
@@ -8949,24 +9003,24 @@
         <f t="shared" si="2"/>
         <v>0084E0</v>
       </c>
-      <c r="B51" s="128" t="s">
+      <c r="B51" s="134" t="s">
         <v>1552</v>
       </c>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
-      <c r="L51" s="129"/>
-      <c r="M51" s="129"/>
-      <c r="N51" s="129"/>
-      <c r="O51" s="129"/>
-      <c r="P51" s="129"/>
-      <c r="Q51" s="130"/>
+      <c r="C51" s="135"/>
+      <c r="D51" s="135"/>
+      <c r="E51" s="135"/>
+      <c r="F51" s="135"/>
+      <c r="G51" s="135"/>
+      <c r="H51" s="135"/>
+      <c r="I51" s="135"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="135"/>
+      <c r="L51" s="135"/>
+      <c r="M51" s="135"/>
+      <c r="N51" s="135"/>
+      <c r="O51" s="135"/>
+      <c r="P51" s="135"/>
+      <c r="Q51" s="136"/>
       <c r="R51" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084EF</v>
@@ -8977,22 +9031,22 @@
         <f t="shared" si="2"/>
         <v>0084F0</v>
       </c>
-      <c r="B52" s="131"/>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="133"/>
+      <c r="B52" s="137"/>
+      <c r="C52" s="138"/>
+      <c r="D52" s="138"/>
+      <c r="E52" s="138"/>
+      <c r="F52" s="138"/>
+      <c r="G52" s="138"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="138"/>
+      <c r="J52" s="138"/>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="138"/>
+      <c r="P52" s="138"/>
+      <c r="Q52" s="139"/>
       <c r="R52" s="88" t="str">
         <f t="shared" si="3"/>
         <v>0084FF</v>
@@ -9003,24 +9057,24 @@
         <f>DEC2HEX(HEX2DEC("008500"),6)</f>
         <v>008500</v>
       </c>
-      <c r="B55" s="128" t="s">
+      <c r="B55" s="134" t="s">
         <v>1553</v>
       </c>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
-      <c r="L55" s="129"/>
-      <c r="M55" s="129"/>
-      <c r="N55" s="129"/>
-      <c r="O55" s="129"/>
-      <c r="P55" s="129"/>
-      <c r="Q55" s="130"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="135"/>
+      <c r="H55" s="135"/>
+      <c r="I55" s="135"/>
+      <c r="J55" s="135"/>
+      <c r="K55" s="135"/>
+      <c r="L55" s="135"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
+      <c r="O55" s="135"/>
+      <c r="P55" s="135"/>
+      <c r="Q55" s="136"/>
       <c r="R55" s="88" t="str">
         <f>DEC2HEX(HEX2DEC("00850F"),6)</f>
         <v>00850F</v>
@@ -9031,22 +9085,22 @@
         <f>DEC2HEX(HEX2DEC(A55)+16,6)</f>
         <v>008510</v>
       </c>
-      <c r="B56" s="131"/>
-      <c r="C56" s="132"/>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
-      <c r="F56" s="132"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="132"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="132"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="132"/>
-      <c r="P56" s="132"/>
-      <c r="Q56" s="133"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="138"/>
+      <c r="D56" s="138"/>
+      <c r="E56" s="138"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="138"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="138"/>
+      <c r="J56" s="138"/>
+      <c r="K56" s="138"/>
+      <c r="L56" s="138"/>
+      <c r="M56" s="138"/>
+      <c r="N56" s="138"/>
+      <c r="O56" s="138"/>
+      <c r="P56" s="138"/>
+      <c r="Q56" s="139"/>
       <c r="R56" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R55)+16,6)</f>
         <v>00851F</v>
@@ -9057,24 +9111,24 @@
         <f t="shared" ref="A57:A70" si="4">DEC2HEX(HEX2DEC(A56)+16,6)</f>
         <v>008520</v>
       </c>
-      <c r="B57" s="128" t="s">
+      <c r="B57" s="134" t="s">
         <v>1554</v>
       </c>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="129"/>
-      <c r="Q57" s="130"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="135"/>
+      <c r="H57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="135"/>
+      <c r="L57" s="135"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="135"/>
+      <c r="P57" s="135"/>
+      <c r="Q57" s="136"/>
       <c r="R57" s="88" t="str">
         <f t="shared" ref="R57:R70" si="5">DEC2HEX(HEX2DEC(R56)+16,6)</f>
         <v>00852F</v>
@@ -9085,22 +9139,22 @@
         <f t="shared" si="4"/>
         <v>008530</v>
       </c>
-      <c r="B58" s="131"/>
-      <c r="C58" s="132"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="132"/>
-      <c r="P58" s="132"/>
-      <c r="Q58" s="133"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="138"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="138"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="138"/>
+      <c r="L58" s="138"/>
+      <c r="M58" s="138"/>
+      <c r="N58" s="138"/>
+      <c r="O58" s="138"/>
+      <c r="P58" s="138"/>
+      <c r="Q58" s="139"/>
       <c r="R58" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00853F</v>
@@ -9111,24 +9165,24 @@
         <f t="shared" si="4"/>
         <v>008540</v>
       </c>
-      <c r="B59" s="128" t="s">
+      <c r="B59" s="134" t="s">
         <v>1555</v>
       </c>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="I59" s="129"/>
-      <c r="J59" s="129"/>
-      <c r="K59" s="129"/>
-      <c r="L59" s="129"/>
-      <c r="M59" s="129"/>
-      <c r="N59" s="129"/>
-      <c r="O59" s="129"/>
-      <c r="P59" s="129"/>
-      <c r="Q59" s="130"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
+      <c r="F59" s="135"/>
+      <c r="G59" s="135"/>
+      <c r="H59" s="135"/>
+      <c r="I59" s="135"/>
+      <c r="J59" s="135"/>
+      <c r="K59" s="135"/>
+      <c r="L59" s="135"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
+      <c r="O59" s="135"/>
+      <c r="P59" s="135"/>
+      <c r="Q59" s="136"/>
       <c r="R59" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00854F</v>
@@ -9139,22 +9193,22 @@
         <f t="shared" si="4"/>
         <v>008550</v>
       </c>
-      <c r="B60" s="131"/>
-      <c r="C60" s="132"/>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="132"/>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
-      <c r="K60" s="132"/>
-      <c r="L60" s="132"/>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
-      <c r="O60" s="132"/>
-      <c r="P60" s="132"/>
-      <c r="Q60" s="133"/>
+      <c r="B60" s="137"/>
+      <c r="C60" s="138"/>
+      <c r="D60" s="138"/>
+      <c r="E60" s="138"/>
+      <c r="F60" s="138"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="138"/>
+      <c r="I60" s="138"/>
+      <c r="J60" s="138"/>
+      <c r="K60" s="138"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="138"/>
+      <c r="N60" s="138"/>
+      <c r="O60" s="138"/>
+      <c r="P60" s="138"/>
+      <c r="Q60" s="139"/>
       <c r="R60" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00855F</v>
@@ -9165,24 +9219,24 @@
         <f t="shared" si="4"/>
         <v>008560</v>
       </c>
-      <c r="B61" s="128" t="s">
+      <c r="B61" s="134" t="s">
         <v>1556</v>
       </c>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
-      <c r="I61" s="129"/>
-      <c r="J61" s="129"/>
-      <c r="K61" s="129"/>
-      <c r="L61" s="129"/>
-      <c r="M61" s="129"/>
-      <c r="N61" s="129"/>
-      <c r="O61" s="129"/>
-      <c r="P61" s="129"/>
-      <c r="Q61" s="130"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
+      <c r="F61" s="135"/>
+      <c r="G61" s="135"/>
+      <c r="H61" s="135"/>
+      <c r="I61" s="135"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135"/>
+      <c r="L61" s="135"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
+      <c r="O61" s="135"/>
+      <c r="P61" s="135"/>
+      <c r="Q61" s="136"/>
       <c r="R61" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00856F</v>
@@ -9193,22 +9247,22 @@
         <f t="shared" si="4"/>
         <v>008570</v>
       </c>
-      <c r="B62" s="131"/>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="133"/>
+      <c r="B62" s="137"/>
+      <c r="C62" s="138"/>
+      <c r="D62" s="138"/>
+      <c r="E62" s="138"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="138"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="138"/>
+      <c r="Q62" s="139"/>
       <c r="R62" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00857F</v>
@@ -9219,24 +9273,24 @@
         <f t="shared" si="4"/>
         <v>008580</v>
       </c>
-      <c r="B63" s="128" t="s">
+      <c r="B63" s="134" t="s">
         <v>1557</v>
       </c>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
-      <c r="I63" s="129"/>
-      <c r="J63" s="129"/>
-      <c r="K63" s="129"/>
-      <c r="L63" s="129"/>
-      <c r="M63" s="129"/>
-      <c r="N63" s="129"/>
-      <c r="O63" s="129"/>
-      <c r="P63" s="129"/>
-      <c r="Q63" s="130"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="135"/>
+      <c r="I63" s="135"/>
+      <c r="J63" s="135"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="135"/>
+      <c r="M63" s="135"/>
+      <c r="N63" s="135"/>
+      <c r="O63" s="135"/>
+      <c r="P63" s="135"/>
+      <c r="Q63" s="136"/>
       <c r="R63" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00858F</v>
@@ -9247,22 +9301,22 @@
         <f t="shared" si="4"/>
         <v>008590</v>
       </c>
-      <c r="B64" s="131"/>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="132"/>
-      <c r="H64" s="132"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="133"/>
+      <c r="B64" s="137"/>
+      <c r="C64" s="138"/>
+      <c r="D64" s="138"/>
+      <c r="E64" s="138"/>
+      <c r="F64" s="138"/>
+      <c r="G64" s="138"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="138"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="138"/>
+      <c r="L64" s="138"/>
+      <c r="M64" s="138"/>
+      <c r="N64" s="138"/>
+      <c r="O64" s="138"/>
+      <c r="P64" s="138"/>
+      <c r="Q64" s="139"/>
       <c r="R64" s="88" t="str">
         <f t="shared" si="5"/>
         <v>00859F</v>
@@ -9273,24 +9327,24 @@
         <f t="shared" si="4"/>
         <v>0085A0</v>
       </c>
-      <c r="B65" s="128" t="s">
+      <c r="B65" s="134" t="s">
         <v>1568</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="129"/>
-      <c r="J65" s="129"/>
-      <c r="K65" s="129"/>
-      <c r="L65" s="129"/>
-      <c r="M65" s="129"/>
-      <c r="N65" s="129"/>
-      <c r="O65" s="129"/>
-      <c r="P65" s="129"/>
-      <c r="Q65" s="130"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="135"/>
+      <c r="H65" s="135"/>
+      <c r="I65" s="135"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="135"/>
+      <c r="O65" s="135"/>
+      <c r="P65" s="135"/>
+      <c r="Q65" s="136"/>
       <c r="R65" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085AF</v>
@@ -9301,22 +9355,22 @@
         <f t="shared" si="4"/>
         <v>0085B0</v>
       </c>
-      <c r="B66" s="131"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="133"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="138"/>
+      <c r="D66" s="138"/>
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
+      <c r="G66" s="138"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="138"/>
+      <c r="L66" s="138"/>
+      <c r="M66" s="138"/>
+      <c r="N66" s="138"/>
+      <c r="O66" s="138"/>
+      <c r="P66" s="138"/>
+      <c r="Q66" s="139"/>
       <c r="R66" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085BF</v>
@@ -9327,24 +9381,24 @@
         <f t="shared" si="4"/>
         <v>0085C0</v>
       </c>
-      <c r="B67" s="135" t="s">
+      <c r="B67" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="136"/>
-      <c r="F67" s="136"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="136"/>
-      <c r="I67" s="136"/>
-      <c r="J67" s="136"/>
-      <c r="K67" s="136"/>
-      <c r="L67" s="136"/>
-      <c r="M67" s="136"/>
-      <c r="N67" s="136"/>
-      <c r="O67" s="136"/>
-      <c r="P67" s="136"/>
-      <c r="Q67" s="137"/>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+      <c r="L67" s="160"/>
+      <c r="M67" s="160"/>
+      <c r="N67" s="160"/>
+      <c r="O67" s="160"/>
+      <c r="P67" s="160"/>
+      <c r="Q67" s="161"/>
       <c r="R67" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085CF</v>
@@ -9355,22 +9409,22 @@
         <f t="shared" si="4"/>
         <v>0085D0</v>
       </c>
-      <c r="B68" s="138"/>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
-      <c r="F68" s="139"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="139"/>
-      <c r="K68" s="139"/>
-      <c r="L68" s="139"/>
-      <c r="M68" s="139"/>
-      <c r="N68" s="139"/>
-      <c r="O68" s="139"/>
-      <c r="P68" s="139"/>
-      <c r="Q68" s="140"/>
+      <c r="B68" s="162"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
+      <c r="E68" s="163"/>
+      <c r="F68" s="163"/>
+      <c r="G68" s="163"/>
+      <c r="H68" s="163"/>
+      <c r="I68" s="163"/>
+      <c r="J68" s="163"/>
+      <c r="K68" s="163"/>
+      <c r="L68" s="163"/>
+      <c r="M68" s="163"/>
+      <c r="N68" s="163"/>
+      <c r="O68" s="163"/>
+      <c r="P68" s="163"/>
+      <c r="Q68" s="164"/>
       <c r="R68" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085DF</v>
@@ -9381,22 +9435,22 @@
         <f t="shared" si="4"/>
         <v>0085E0</v>
       </c>
-      <c r="B69" s="138"/>
-      <c r="C69" s="139"/>
-      <c r="D69" s="139"/>
-      <c r="E69" s="139"/>
-      <c r="F69" s="139"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="139"/>
-      <c r="I69" s="139"/>
-      <c r="J69" s="139"/>
-      <c r="K69" s="139"/>
-      <c r="L69" s="139"/>
-      <c r="M69" s="139"/>
-      <c r="N69" s="139"/>
-      <c r="O69" s="139"/>
-      <c r="P69" s="139"/>
-      <c r="Q69" s="140"/>
+      <c r="B69" s="162"/>
+      <c r="C69" s="163"/>
+      <c r="D69" s="163"/>
+      <c r="E69" s="163"/>
+      <c r="F69" s="163"/>
+      <c r="G69" s="163"/>
+      <c r="H69" s="163"/>
+      <c r="I69" s="163"/>
+      <c r="J69" s="163"/>
+      <c r="K69" s="163"/>
+      <c r="L69" s="163"/>
+      <c r="M69" s="163"/>
+      <c r="N69" s="163"/>
+      <c r="O69" s="163"/>
+      <c r="P69" s="163"/>
+      <c r="Q69" s="164"/>
       <c r="R69" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085EF</v>
@@ -9407,22 +9461,22 @@
         <f t="shared" si="4"/>
         <v>0085F0</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="142"/>
-      <c r="G70" s="142"/>
-      <c r="H70" s="142"/>
-      <c r="I70" s="142"/>
-      <c r="J70" s="142"/>
-      <c r="K70" s="142"/>
-      <c r="L70" s="142"/>
-      <c r="M70" s="142"/>
-      <c r="N70" s="142"/>
-      <c r="O70" s="142"/>
-      <c r="P70" s="142"/>
-      <c r="Q70" s="143"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="166"/>
+      <c r="D70" s="166"/>
+      <c r="E70" s="166"/>
+      <c r="F70" s="166"/>
+      <c r="G70" s="166"/>
+      <c r="H70" s="166"/>
+      <c r="I70" s="166"/>
+      <c r="J70" s="166"/>
+      <c r="K70" s="166"/>
+      <c r="L70" s="166"/>
+      <c r="M70" s="166"/>
+      <c r="N70" s="166"/>
+      <c r="O70" s="166"/>
+      <c r="P70" s="166"/>
+      <c r="Q70" s="167"/>
       <c r="R70" s="88" t="str">
         <f t="shared" si="5"/>
         <v>0085FF</v>
@@ -9433,24 +9487,24 @@
         <f>DEC2HEX(HEX2DEC("008600"),6)</f>
         <v>008600</v>
       </c>
-      <c r="B73" s="134" t="s">
+      <c r="B73" s="158" t="s">
         <v>1586</v>
       </c>
-      <c r="C73" s="134"/>
-      <c r="D73" s="134"/>
-      <c r="E73" s="134"/>
-      <c r="F73" s="134"/>
-      <c r="G73" s="134"/>
-      <c r="H73" s="134"/>
-      <c r="I73" s="134"/>
-      <c r="J73" s="134"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134"/>
-      <c r="O73" s="134"/>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="134"/>
+      <c r="C73" s="158"/>
+      <c r="D73" s="158"/>
+      <c r="E73" s="158"/>
+      <c r="F73" s="158"/>
+      <c r="G73" s="158"/>
+      <c r="H73" s="158"/>
+      <c r="I73" s="158"/>
+      <c r="J73" s="158"/>
+      <c r="K73" s="158"/>
+      <c r="L73" s="158"/>
+      <c r="M73" s="158"/>
+      <c r="N73" s="158"/>
+      <c r="O73" s="158"/>
+      <c r="P73" s="158"/>
+      <c r="Q73" s="158"/>
       <c r="R73" s="88" t="str">
         <f>DEC2HEX(HEX2DEC("00860F"),6)</f>
         <v>00860F</v>
@@ -9461,22 +9515,22 @@
         <f>DEC2HEX(HEX2DEC(A73)+16,6)</f>
         <v>008610</v>
       </c>
-      <c r="B74" s="134"/>
-      <c r="C74" s="134"/>
-      <c r="D74" s="134"/>
-      <c r="E74" s="134"/>
-      <c r="F74" s="134"/>
-      <c r="G74" s="134"/>
-      <c r="H74" s="134"/>
-      <c r="I74" s="134"/>
-      <c r="J74" s="134"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="134"/>
+      <c r="B74" s="158"/>
+      <c r="C74" s="158"/>
+      <c r="D74" s="158"/>
+      <c r="E74" s="158"/>
+      <c r="F74" s="158"/>
+      <c r="G74" s="158"/>
+      <c r="H74" s="158"/>
+      <c r="I74" s="158"/>
+      <c r="J74" s="158"/>
+      <c r="K74" s="158"/>
+      <c r="L74" s="158"/>
+      <c r="M74" s="158"/>
+      <c r="N74" s="158"/>
+      <c r="O74" s="158"/>
+      <c r="P74" s="158"/>
+      <c r="Q74" s="158"/>
       <c r="R74" s="88" t="str">
         <f>DEC2HEX(HEX2DEC(R73)+16,6)</f>
         <v>00861F</v>
@@ -9487,24 +9541,24 @@
         <f t="shared" ref="A75:A88" si="6">DEC2HEX(HEX2DEC(A74)+16,6)</f>
         <v>008620</v>
       </c>
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="158" t="s">
         <v>1587</v>
       </c>
-      <c r="C75" s="134"/>
-      <c r="D75" s="134"/>
-      <c r="E75" s="134"/>
-      <c r="F75" s="134"/>
-      <c r="G75" s="134"/>
-      <c r="H75" s="134"/>
-      <c r="I75" s="134"/>
-      <c r="J75" s="134"/>
-      <c r="K75" s="134"/>
-      <c r="L75" s="134"/>
-      <c r="M75" s="134"/>
-      <c r="N75" s="134"/>
-      <c r="O75" s="134"/>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="134"/>
+      <c r="C75" s="158"/>
+      <c r="D75" s="158"/>
+      <c r="E75" s="158"/>
+      <c r="F75" s="158"/>
+      <c r="G75" s="158"/>
+      <c r="H75" s="158"/>
+      <c r="I75" s="158"/>
+      <c r="J75" s="158"/>
+      <c r="K75" s="158"/>
+      <c r="L75" s="158"/>
+      <c r="M75" s="158"/>
+      <c r="N75" s="158"/>
+      <c r="O75" s="158"/>
+      <c r="P75" s="158"/>
+      <c r="Q75" s="158"/>
       <c r="R75" s="88" t="str">
         <f t="shared" ref="R75:R88" si="7">DEC2HEX(HEX2DEC(R74)+16,6)</f>
         <v>00862F</v>
@@ -9515,22 +9569,22 @@
         <f t="shared" si="6"/>
         <v>008630</v>
       </c>
-      <c r="B76" s="134"/>
-      <c r="C76" s="134"/>
-      <c r="D76" s="134"/>
-      <c r="E76" s="134"/>
-      <c r="F76" s="134"/>
-      <c r="G76" s="134"/>
-      <c r="H76" s="134"/>
-      <c r="I76" s="134"/>
-      <c r="J76" s="134"/>
-      <c r="K76" s="134"/>
-      <c r="L76" s="134"/>
-      <c r="M76" s="134"/>
-      <c r="N76" s="134"/>
-      <c r="O76" s="134"/>
-      <c r="P76" s="134"/>
-      <c r="Q76" s="134"/>
+      <c r="B76" s="158"/>
+      <c r="C76" s="158"/>
+      <c r="D76" s="158"/>
+      <c r="E76" s="158"/>
+      <c r="F76" s="158"/>
+      <c r="G76" s="158"/>
+      <c r="H76" s="158"/>
+      <c r="I76" s="158"/>
+      <c r="J76" s="158"/>
+      <c r="K76" s="158"/>
+      <c r="L76" s="158"/>
+      <c r="M76" s="158"/>
+      <c r="N76" s="158"/>
+      <c r="O76" s="158"/>
+      <c r="P76" s="158"/>
+      <c r="Q76" s="158"/>
       <c r="R76" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00863F</v>
@@ -9541,24 +9595,24 @@
         <f t="shared" si="6"/>
         <v>008640</v>
       </c>
-      <c r="B77" s="135" t="s">
+      <c r="B77" s="159" t="s">
         <v>274</v>
       </c>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="136"/>
-      <c r="F77" s="136"/>
-      <c r="G77" s="136"/>
-      <c r="H77" s="136"/>
-      <c r="I77" s="136"/>
-      <c r="J77" s="136"/>
-      <c r="K77" s="136"/>
-      <c r="L77" s="136"/>
-      <c r="M77" s="136"/>
-      <c r="N77" s="136"/>
-      <c r="O77" s="136"/>
-      <c r="P77" s="136"/>
-      <c r="Q77" s="137"/>
+      <c r="C77" s="160"/>
+      <c r="D77" s="160"/>
+      <c r="E77" s="160"/>
+      <c r="F77" s="160"/>
+      <c r="G77" s="160"/>
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="160"/>
+      <c r="L77" s="160"/>
+      <c r="M77" s="160"/>
+      <c r="N77" s="160"/>
+      <c r="O77" s="160"/>
+      <c r="P77" s="160"/>
+      <c r="Q77" s="161"/>
       <c r="R77" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00864F</v>
@@ -9569,22 +9623,22 @@
         <f t="shared" si="6"/>
         <v>008650</v>
       </c>
-      <c r="B78" s="138"/>
-      <c r="C78" s="139"/>
-      <c r="D78" s="139"/>
-      <c r="E78" s="139"/>
-      <c r="F78" s="139"/>
-      <c r="G78" s="139"/>
-      <c r="H78" s="139"/>
-      <c r="I78" s="139"/>
-      <c r="J78" s="139"/>
-      <c r="K78" s="139"/>
-      <c r="L78" s="139"/>
-      <c r="M78" s="139"/>
-      <c r="N78" s="139"/>
-      <c r="O78" s="139"/>
-      <c r="P78" s="139"/>
-      <c r="Q78" s="140"/>
+      <c r="B78" s="162"/>
+      <c r="C78" s="163"/>
+      <c r="D78" s="163"/>
+      <c r="E78" s="163"/>
+      <c r="F78" s="163"/>
+      <c r="G78" s="163"/>
+      <c r="H78" s="163"/>
+      <c r="I78" s="163"/>
+      <c r="J78" s="163"/>
+      <c r="K78" s="163"/>
+      <c r="L78" s="163"/>
+      <c r="M78" s="163"/>
+      <c r="N78" s="163"/>
+      <c r="O78" s="163"/>
+      <c r="P78" s="163"/>
+      <c r="Q78" s="164"/>
       <c r="R78" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00865F</v>
@@ -9595,22 +9649,22 @@
         <f t="shared" si="6"/>
         <v>008660</v>
       </c>
-      <c r="B79" s="138"/>
-      <c r="C79" s="139"/>
-      <c r="D79" s="139"/>
-      <c r="E79" s="139"/>
-      <c r="F79" s="139"/>
-      <c r="G79" s="139"/>
-      <c r="H79" s="139"/>
-      <c r="I79" s="139"/>
-      <c r="J79" s="139"/>
-      <c r="K79" s="139"/>
-      <c r="L79" s="139"/>
-      <c r="M79" s="139"/>
-      <c r="N79" s="139"/>
-      <c r="O79" s="139"/>
-      <c r="P79" s="139"/>
-      <c r="Q79" s="140"/>
+      <c r="B79" s="162"/>
+      <c r="C79" s="163"/>
+      <c r="D79" s="163"/>
+      <c r="E79" s="163"/>
+      <c r="F79" s="163"/>
+      <c r="G79" s="163"/>
+      <c r="H79" s="163"/>
+      <c r="I79" s="163"/>
+      <c r="J79" s="163"/>
+      <c r="K79" s="163"/>
+      <c r="L79" s="163"/>
+      <c r="M79" s="163"/>
+      <c r="N79" s="163"/>
+      <c r="O79" s="163"/>
+      <c r="P79" s="163"/>
+      <c r="Q79" s="164"/>
       <c r="R79" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00866F</v>
@@ -9621,22 +9675,22 @@
         <f t="shared" si="6"/>
         <v>008670</v>
       </c>
-      <c r="B80" s="138"/>
-      <c r="C80" s="139"/>
-      <c r="D80" s="139"/>
-      <c r="E80" s="139"/>
-      <c r="F80" s="139"/>
-      <c r="G80" s="139"/>
-      <c r="H80" s="139"/>
-      <c r="I80" s="139"/>
-      <c r="J80" s="139"/>
-      <c r="K80" s="139"/>
-      <c r="L80" s="139"/>
-      <c r="M80" s="139"/>
-      <c r="N80" s="139"/>
-      <c r="O80" s="139"/>
-      <c r="P80" s="139"/>
-      <c r="Q80" s="140"/>
+      <c r="B80" s="162"/>
+      <c r="C80" s="163"/>
+      <c r="D80" s="163"/>
+      <c r="E80" s="163"/>
+      <c r="F80" s="163"/>
+      <c r="G80" s="163"/>
+      <c r="H80" s="163"/>
+      <c r="I80" s="163"/>
+      <c r="J80" s="163"/>
+      <c r="K80" s="163"/>
+      <c r="L80" s="163"/>
+      <c r="M80" s="163"/>
+      <c r="N80" s="163"/>
+      <c r="O80" s="163"/>
+      <c r="P80" s="163"/>
+      <c r="Q80" s="164"/>
       <c r="R80" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00867F</v>
@@ -9647,22 +9701,22 @@
         <f t="shared" si="6"/>
         <v>008680</v>
       </c>
-      <c r="B81" s="138"/>
-      <c r="C81" s="139"/>
-      <c r="D81" s="139"/>
-      <c r="E81" s="139"/>
-      <c r="F81" s="139"/>
-      <c r="G81" s="139"/>
-      <c r="H81" s="139"/>
-      <c r="I81" s="139"/>
-      <c r="J81" s="139"/>
-      <c r="K81" s="139"/>
-      <c r="L81" s="139"/>
-      <c r="M81" s="139"/>
-      <c r="N81" s="139"/>
-      <c r="O81" s="139"/>
-      <c r="P81" s="139"/>
-      <c r="Q81" s="140"/>
+      <c r="B81" s="162"/>
+      <c r="C81" s="163"/>
+      <c r="D81" s="163"/>
+      <c r="E81" s="163"/>
+      <c r="F81" s="163"/>
+      <c r="G81" s="163"/>
+      <c r="H81" s="163"/>
+      <c r="I81" s="163"/>
+      <c r="J81" s="163"/>
+      <c r="K81" s="163"/>
+      <c r="L81" s="163"/>
+      <c r="M81" s="163"/>
+      <c r="N81" s="163"/>
+      <c r="O81" s="163"/>
+      <c r="P81" s="163"/>
+      <c r="Q81" s="164"/>
       <c r="R81" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00868F</v>
@@ -9673,22 +9727,22 @@
         <f t="shared" si="6"/>
         <v>008690</v>
       </c>
-      <c r="B82" s="138"/>
-      <c r="C82" s="139"/>
-      <c r="D82" s="139"/>
-      <c r="E82" s="139"/>
-      <c r="F82" s="139"/>
-      <c r="G82" s="139"/>
-      <c r="H82" s="139"/>
-      <c r="I82" s="139"/>
-      <c r="J82" s="139"/>
-      <c r="K82" s="139"/>
-      <c r="L82" s="139"/>
-      <c r="M82" s="139"/>
-      <c r="N82" s="139"/>
-      <c r="O82" s="139"/>
-      <c r="P82" s="139"/>
-      <c r="Q82" s="140"/>
+      <c r="B82" s="162"/>
+      <c r="C82" s="163"/>
+      <c r="D82" s="163"/>
+      <c r="E82" s="163"/>
+      <c r="F82" s="163"/>
+      <c r="G82" s="163"/>
+      <c r="H82" s="163"/>
+      <c r="I82" s="163"/>
+      <c r="J82" s="163"/>
+      <c r="K82" s="163"/>
+      <c r="L82" s="163"/>
+      <c r="M82" s="163"/>
+      <c r="N82" s="163"/>
+      <c r="O82" s="163"/>
+      <c r="P82" s="163"/>
+      <c r="Q82" s="164"/>
       <c r="R82" s="88" t="str">
         <f t="shared" si="7"/>
         <v>00869F</v>
@@ -9699,22 +9753,22 @@
         <f t="shared" si="6"/>
         <v>0086A0</v>
       </c>
-      <c r="B83" s="138"/>
-      <c r="C83" s="139"/>
-      <c r="D83" s="139"/>
-      <c r="E83" s="139"/>
-      <c r="F83" s="139"/>
-      <c r="G83" s="139"/>
-      <c r="H83" s="139"/>
-      <c r="I83" s="139"/>
-      <c r="J83" s="139"/>
-      <c r="K83" s="139"/>
-      <c r="L83" s="139"/>
-      <c r="M83" s="139"/>
-      <c r="N83" s="139"/>
-      <c r="O83" s="139"/>
-      <c r="P83" s="139"/>
-      <c r="Q83" s="140"/>
+      <c r="B83" s="162"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
+      <c r="F83" s="163"/>
+      <c r="G83" s="163"/>
+      <c r="H83" s="163"/>
+      <c r="I83" s="163"/>
+      <c r="J83" s="163"/>
+      <c r="K83" s="163"/>
+      <c r="L83" s="163"/>
+      <c r="M83" s="163"/>
+      <c r="N83" s="163"/>
+      <c r="O83" s="163"/>
+      <c r="P83" s="163"/>
+      <c r="Q83" s="164"/>
       <c r="R83" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086AF</v>
@@ -9725,22 +9779,22 @@
         <f t="shared" si="6"/>
         <v>0086B0</v>
       </c>
-      <c r="B84" s="138"/>
-      <c r="C84" s="139"/>
-      <c r="D84" s="139"/>
-      <c r="E84" s="139"/>
-      <c r="F84" s="139"/>
-      <c r="G84" s="139"/>
-      <c r="H84" s="139"/>
-      <c r="I84" s="139"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="139"/>
-      <c r="L84" s="139"/>
-      <c r="M84" s="139"/>
-      <c r="N84" s="139"/>
-      <c r="O84" s="139"/>
-      <c r="P84" s="139"/>
-      <c r="Q84" s="140"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="163"/>
+      <c r="G84" s="163"/>
+      <c r="H84" s="163"/>
+      <c r="I84" s="163"/>
+      <c r="J84" s="163"/>
+      <c r="K84" s="163"/>
+      <c r="L84" s="163"/>
+      <c r="M84" s="163"/>
+      <c r="N84" s="163"/>
+      <c r="O84" s="163"/>
+      <c r="P84" s="163"/>
+      <c r="Q84" s="164"/>
       <c r="R84" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086BF</v>
@@ -9751,22 +9805,22 @@
         <f t="shared" si="6"/>
         <v>0086C0</v>
       </c>
-      <c r="B85" s="138"/>
-      <c r="C85" s="139"/>
-      <c r="D85" s="139"/>
-      <c r="E85" s="139"/>
-      <c r="F85" s="139"/>
-      <c r="G85" s="139"/>
-      <c r="H85" s="139"/>
-      <c r="I85" s="139"/>
-      <c r="J85" s="139"/>
-      <c r="K85" s="139"/>
-      <c r="L85" s="139"/>
-      <c r="M85" s="139"/>
-      <c r="N85" s="139"/>
-      <c r="O85" s="139"/>
-      <c r="P85" s="139"/>
-      <c r="Q85" s="140"/>
+      <c r="B85" s="162"/>
+      <c r="C85" s="163"/>
+      <c r="D85" s="163"/>
+      <c r="E85" s="163"/>
+      <c r="F85" s="163"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163"/>
+      <c r="I85" s="163"/>
+      <c r="J85" s="163"/>
+      <c r="K85" s="163"/>
+      <c r="L85" s="163"/>
+      <c r="M85" s="163"/>
+      <c r="N85" s="163"/>
+      <c r="O85" s="163"/>
+      <c r="P85" s="163"/>
+      <c r="Q85" s="164"/>
       <c r="R85" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086CF</v>
@@ -9777,22 +9831,22 @@
         <f t="shared" si="6"/>
         <v>0086D0</v>
       </c>
-      <c r="B86" s="138"/>
-      <c r="C86" s="139"/>
-      <c r="D86" s="139"/>
-      <c r="E86" s="139"/>
-      <c r="F86" s="139"/>
-      <c r="G86" s="139"/>
-      <c r="H86" s="139"/>
-      <c r="I86" s="139"/>
-      <c r="J86" s="139"/>
-      <c r="K86" s="139"/>
-      <c r="L86" s="139"/>
-      <c r="M86" s="139"/>
-      <c r="N86" s="139"/>
-      <c r="O86" s="139"/>
-      <c r="P86" s="139"/>
-      <c r="Q86" s="140"/>
+      <c r="B86" s="162"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="163"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="163"/>
+      <c r="I86" s="163"/>
+      <c r="J86" s="163"/>
+      <c r="K86" s="163"/>
+      <c r="L86" s="163"/>
+      <c r="M86" s="163"/>
+      <c r="N86" s="163"/>
+      <c r="O86" s="163"/>
+      <c r="P86" s="163"/>
+      <c r="Q86" s="164"/>
       <c r="R86" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086DF</v>
@@ -9803,22 +9857,22 @@
         <f t="shared" si="6"/>
         <v>0086E0</v>
       </c>
-      <c r="B87" s="138"/>
-      <c r="C87" s="139"/>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="139"/>
-      <c r="G87" s="139"/>
-      <c r="H87" s="139"/>
-      <c r="I87" s="139"/>
-      <c r="J87" s="139"/>
-      <c r="K87" s="139"/>
-      <c r="L87" s="139"/>
-      <c r="M87" s="139"/>
-      <c r="N87" s="139"/>
-      <c r="O87" s="139"/>
-      <c r="P87" s="139"/>
-      <c r="Q87" s="140"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
+      <c r="G87" s="163"/>
+      <c r="H87" s="163"/>
+      <c r="I87" s="163"/>
+      <c r="J87" s="163"/>
+      <c r="K87" s="163"/>
+      <c r="L87" s="163"/>
+      <c r="M87" s="163"/>
+      <c r="N87" s="163"/>
+      <c r="O87" s="163"/>
+      <c r="P87" s="163"/>
+      <c r="Q87" s="164"/>
       <c r="R87" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086EF</v>
@@ -9829,22 +9883,22 @@
         <f t="shared" si="6"/>
         <v>0086F0</v>
       </c>
-      <c r="B88" s="141"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="142"/>
-      <c r="L88" s="142"/>
-      <c r="M88" s="142"/>
-      <c r="N88" s="142"/>
-      <c r="O88" s="142"/>
-      <c r="P88" s="142"/>
-      <c r="Q88" s="143"/>
+      <c r="B88" s="165"/>
+      <c r="C88" s="166"/>
+      <c r="D88" s="166"/>
+      <c r="E88" s="166"/>
+      <c r="F88" s="166"/>
+      <c r="G88" s="166"/>
+      <c r="H88" s="166"/>
+      <c r="I88" s="166"/>
+      <c r="J88" s="166"/>
+      <c r="K88" s="166"/>
+      <c r="L88" s="166"/>
+      <c r="M88" s="166"/>
+      <c r="N88" s="166"/>
+      <c r="O88" s="166"/>
+      <c r="P88" s="166"/>
+      <c r="Q88" s="167"/>
       <c r="R88" s="88" t="str">
         <f t="shared" si="7"/>
         <v>0086FF</v>
@@ -11036,24 +11090,24 @@
       <c r="M131" s="52" t="s">
         <v>1409</v>
       </c>
-      <c r="O131" s="127" t="s">
+      <c r="O131" s="157" t="s">
         <v>1559</v>
       </c>
-      <c r="P131" s="127"/>
-      <c r="Q131" s="127"/>
-      <c r="R131" s="127"/>
+      <c r="P131" s="157"/>
+      <c r="Q131" s="157"/>
+      <c r="R131" s="157"/>
     </row>
     <row r="132" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O132" s="127"/>
-      <c r="P132" s="127"/>
-      <c r="Q132" s="127"/>
-      <c r="R132" s="127"/>
+      <c r="O132" s="157"/>
+      <c r="P132" s="157"/>
+      <c r="Q132" s="157"/>
+      <c r="R132" s="157"/>
     </row>
     <row r="133" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O133" s="127"/>
-      <c r="P133" s="127"/>
-      <c r="Q133" s="127"/>
-      <c r="R133" s="127"/>
+      <c r="O133" s="157"/>
+      <c r="P133" s="157"/>
+      <c r="Q133" s="157"/>
+      <c r="R133" s="157"/>
     </row>
     <row r="134" spans="1:18" ht="12.95" customHeight="1">
       <c r="B134" s="52" t="s">
@@ -11092,58 +11146,58 @@
       <c r="M134" s="52" t="s">
         <v>1580</v>
       </c>
-      <c r="O134" s="127" t="s">
+      <c r="O134" s="157" t="s">
         <v>1581</v>
       </c>
-      <c r="P134" s="127"/>
-      <c r="Q134" s="127"/>
-      <c r="R134" s="127"/>
+      <c r="P134" s="157"/>
+      <c r="Q134" s="157"/>
+      <c r="R134" s="157"/>
     </row>
     <row r="135" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O135" s="127"/>
-      <c r="P135" s="127"/>
-      <c r="Q135" s="127"/>
-      <c r="R135" s="127"/>
+      <c r="O135" s="157"/>
+      <c r="P135" s="157"/>
+      <c r="Q135" s="157"/>
+      <c r="R135" s="157"/>
     </row>
     <row r="136" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O136" s="127"/>
-      <c r="P136" s="127"/>
-      <c r="Q136" s="127"/>
-      <c r="R136" s="127"/>
+      <c r="O136" s="157"/>
+      <c r="P136" s="157"/>
+      <c r="Q136" s="157"/>
+      <c r="R136" s="157"/>
     </row>
     <row r="137" spans="1:18" ht="12.95" customHeight="1">
-      <c r="M137" s="127" t="s">
+      <c r="M137" s="157" t="s">
         <v>1560</v>
       </c>
-      <c r="N137" s="127"/>
-      <c r="O137" s="127"/>
-      <c r="P137" s="127"/>
-      <c r="Q137" s="127"/>
-      <c r="R137" s="127"/>
+      <c r="N137" s="157"/>
+      <c r="O137" s="157"/>
+      <c r="P137" s="157"/>
+      <c r="Q137" s="157"/>
+      <c r="R137" s="157"/>
     </row>
     <row r="138" spans="1:18" ht="11.25">
-      <c r="M138" s="127"/>
-      <c r="N138" s="127"/>
-      <c r="O138" s="127"/>
-      <c r="P138" s="127"/>
-      <c r="Q138" s="127"/>
-      <c r="R138" s="127"/>
+      <c r="M138" s="157"/>
+      <c r="N138" s="157"/>
+      <c r="O138" s="157"/>
+      <c r="P138" s="157"/>
+      <c r="Q138" s="157"/>
+      <c r="R138" s="157"/>
     </row>
     <row r="139" spans="1:18" ht="11.25">
-      <c r="M139" s="127"/>
-      <c r="N139" s="127"/>
-      <c r="O139" s="127"/>
-      <c r="P139" s="127"/>
-      <c r="Q139" s="127"/>
-      <c r="R139" s="127"/>
+      <c r="M139" s="157"/>
+      <c r="N139" s="157"/>
+      <c r="O139" s="157"/>
+      <c r="P139" s="157"/>
+      <c r="Q139" s="157"/>
+      <c r="R139" s="157"/>
     </row>
     <row r="140" spans="1:18" ht="11.25">
-      <c r="M140" s="127"/>
-      <c r="N140" s="127"/>
-      <c r="O140" s="127"/>
-      <c r="P140" s="127"/>
-      <c r="Q140" s="127"/>
-      <c r="R140" s="127"/>
+      <c r="M140" s="157"/>
+      <c r="N140" s="157"/>
+      <c r="O140" s="157"/>
+      <c r="P140" s="157"/>
+      <c r="Q140" s="157"/>
+      <c r="R140" s="157"/>
     </row>
     <row r="141" spans="1:18" ht="11.25">
       <c r="M141" s="97"/>
@@ -11178,37 +11232,39 @@
       <c r="I142" s="52" t="s">
         <v>1418</v>
       </c>
-      <c r="O142" s="127" t="s">
+      <c r="O142" s="157" t="s">
         <v>1561</v>
       </c>
-      <c r="P142" s="127"/>
-      <c r="Q142" s="127"/>
-      <c r="R142" s="127"/>
+      <c r="P142" s="157"/>
+      <c r="Q142" s="157"/>
+      <c r="R142" s="157"/>
     </row>
     <row r="143" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O143" s="127"/>
-      <c r="P143" s="127"/>
-      <c r="Q143" s="127"/>
-      <c r="R143" s="127"/>
+      <c r="O143" s="157"/>
+      <c r="P143" s="157"/>
+      <c r="Q143" s="157"/>
+      <c r="R143" s="157"/>
     </row>
     <row r="144" spans="1:18" ht="12.95" customHeight="1">
-      <c r="O144" s="127"/>
-      <c r="P144" s="127"/>
-      <c r="Q144" s="127"/>
-      <c r="R144" s="127"/>
+      <c r="O144" s="157"/>
+      <c r="P144" s="157"/>
+      <c r="Q144" s="157"/>
+      <c r="R144" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B47:Q48"/>
-    <mergeCell ref="B55:Q56"/>
-    <mergeCell ref="B57:Q58"/>
-    <mergeCell ref="B59:Q60"/>
-    <mergeCell ref="B61:Q62"/>
-    <mergeCell ref="B37:Q38"/>
-    <mergeCell ref="B39:Q40"/>
-    <mergeCell ref="B41:Q42"/>
-    <mergeCell ref="B43:Q44"/>
-    <mergeCell ref="B45:Q46"/>
+    <mergeCell ref="M137:R140"/>
+    <mergeCell ref="O142:R144"/>
+    <mergeCell ref="B49:Q50"/>
+    <mergeCell ref="B51:Q52"/>
+    <mergeCell ref="O131:R133"/>
+    <mergeCell ref="O134:R136"/>
+    <mergeCell ref="B63:Q64"/>
+    <mergeCell ref="B65:Q66"/>
+    <mergeCell ref="B73:Q74"/>
+    <mergeCell ref="B75:Q76"/>
+    <mergeCell ref="B67:Q70"/>
+    <mergeCell ref="B77:Q88"/>
     <mergeCell ref="B5:Q8"/>
     <mergeCell ref="B9:Q12"/>
     <mergeCell ref="B31:Q32"/>
@@ -11221,18 +11277,16 @@
     <mergeCell ref="B25:Q26"/>
     <mergeCell ref="B27:Q28"/>
     <mergeCell ref="I29:J30"/>
-    <mergeCell ref="M137:R140"/>
-    <mergeCell ref="O142:R144"/>
-    <mergeCell ref="B49:Q50"/>
-    <mergeCell ref="B51:Q52"/>
-    <mergeCell ref="O131:R133"/>
-    <mergeCell ref="O134:R136"/>
-    <mergeCell ref="B63:Q64"/>
-    <mergeCell ref="B65:Q66"/>
-    <mergeCell ref="B73:Q74"/>
-    <mergeCell ref="B75:Q76"/>
-    <mergeCell ref="B67:Q70"/>
-    <mergeCell ref="B77:Q88"/>
+    <mergeCell ref="B37:Q38"/>
+    <mergeCell ref="B39:Q40"/>
+    <mergeCell ref="B41:Q42"/>
+    <mergeCell ref="B43:Q44"/>
+    <mergeCell ref="B45:Q46"/>
+    <mergeCell ref="B47:Q48"/>
+    <mergeCell ref="B55:Q56"/>
+    <mergeCell ref="B57:Q58"/>
+    <mergeCell ref="B59:Q60"/>
+    <mergeCell ref="B61:Q62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -11249,8 +11303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147:H147"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="I140" sqref="I140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.5703125" defaultRowHeight="12.75" customHeight="1"/>
@@ -11335,7 +11389,7 @@
       <c r="C5" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="172" t="s">
+      <c r="D5" s="168" t="s">
         <v>1600</v>
       </c>
       <c r="E5" s="73"/>
@@ -11361,10 +11415,10 @@
         <f t="shared" ref="B6:B67" si="1">DEC2HEX(HEX2DEC(B5)+1,4)</f>
         <v>0002</v>
       </c>
-      <c r="C6" s="223" t="s">
+      <c r="C6" s="113" t="s">
         <v>1601</v>
       </c>
-      <c r="D6" s="173"/>
+      <c r="D6" s="169"/>
       <c r="E6" s="73"/>
       <c r="F6" s="73"/>
       <c r="G6" s="67" t="s">
@@ -11390,10 +11444,10 @@
         <f t="shared" si="1"/>
         <v>0003</v>
       </c>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="113" t="s">
         <v>1603</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="169"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="66"/>
@@ -11417,10 +11471,10 @@
         <f t="shared" si="1"/>
         <v>0004</v>
       </c>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="113" t="s">
         <v>1604</v>
       </c>
-      <c r="D8" s="173"/>
+      <c r="D8" s="169"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
       <c r="G8" s="66"/>
@@ -11444,10 +11498,10 @@
         <f t="shared" si="1"/>
         <v>0005</v>
       </c>
-      <c r="C9" s="220" t="s">
+      <c r="C9" s="110" t="s">
         <v>1605</v>
       </c>
-      <c r="D9" s="173"/>
+      <c r="D9" s="169"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="66" t="s">
@@ -11473,10 +11527,10 @@
         <f t="shared" si="1"/>
         <v>0006</v>
       </c>
-      <c r="C10" s="220" t="s">
+      <c r="C10" s="110" t="s">
         <v>1607</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="169"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
       <c r="G10" s="66"/>
@@ -11500,10 +11554,10 @@
         <f t="shared" si="1"/>
         <v>0007</v>
       </c>
-      <c r="C11" s="220" t="s">
+      <c r="C11" s="110" t="s">
         <v>1608</v>
       </c>
-      <c r="D11" s="173"/>
+      <c r="D11" s="169"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="66"/>
@@ -11527,10 +11581,10 @@
         <f t="shared" si="1"/>
         <v>0008</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="113" t="s">
         <v>1268</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="170" t="s">
         <v>307</v>
       </c>
       <c r="E12" s="73"/>
@@ -11558,10 +11612,10 @@
         <f t="shared" si="1"/>
         <v>0009</v>
       </c>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="113" t="s">
         <v>1269</v>
       </c>
-      <c r="D13" s="166"/>
+      <c r="D13" s="171"/>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
       <c r="G13" s="66" t="s">
@@ -11587,10 +11641,10 @@
         <f t="shared" si="1"/>
         <v>000A</v>
       </c>
-      <c r="C14" s="223" t="s">
+      <c r="C14" s="113" t="s">
         <v>1270</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="66" t="s">
@@ -11616,10 +11670,10 @@
         <f t="shared" si="1"/>
         <v>000B</v>
       </c>
-      <c r="C15" s="223" t="s">
+      <c r="C15" s="113" t="s">
         <v>1271</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="171"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="66" t="s">
@@ -11645,10 +11699,10 @@
         <f t="shared" si="1"/>
         <v>000C</v>
       </c>
-      <c r="C16" s="223" t="s">
+      <c r="C16" s="113" t="s">
         <v>1272</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="171"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="66" t="s">
@@ -11674,10 +11728,10 @@
         <f t="shared" si="1"/>
         <v>000D</v>
       </c>
-      <c r="C17" s="223" t="s">
+      <c r="C17" s="113" t="s">
         <v>1273</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="171"/>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
       <c r="G17" s="66" t="s">
@@ -11703,10 +11757,10 @@
         <f t="shared" si="1"/>
         <v>000E</v>
       </c>
-      <c r="C18" s="223" t="s">
+      <c r="C18" s="113" t="s">
         <v>1274</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="171"/>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
       <c r="G18" s="66" t="s">
@@ -11732,10 +11786,10 @@
         <f t="shared" si="1"/>
         <v>000F</v>
       </c>
-      <c r="C19" s="223" t="s">
+      <c r="C19" s="113" t="s">
         <v>1275</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
       <c r="G19" s="66" t="s">
@@ -11761,10 +11815,10 @@
         <f t="shared" si="1"/>
         <v>0010</v>
       </c>
-      <c r="C20" s="220" t="s">
+      <c r="C20" s="110" t="s">
         <v>1276</v>
       </c>
-      <c r="D20" s="174" t="s">
+      <c r="D20" s="173" t="s">
         <v>307</v>
       </c>
       <c r="E20" s="73"/>
@@ -11792,10 +11846,10 @@
         <f t="shared" si="1"/>
         <v>0011</v>
       </c>
-      <c r="C21" s="220" t="s">
+      <c r="C21" s="110" t="s">
         <v>1277</v>
       </c>
-      <c r="D21" s="175"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
       <c r="G21" s="66" t="s">
@@ -11821,10 +11875,10 @@
         <f t="shared" si="1"/>
         <v>0012</v>
       </c>
-      <c r="C22" s="220" t="s">
+      <c r="C22" s="110" t="s">
         <v>417</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
       <c r="G22" s="66" t="s">
@@ -11851,10 +11905,10 @@
         <f t="shared" si="1"/>
         <v>0013</v>
       </c>
-      <c r="C23" s="220" t="s">
+      <c r="C23" s="110" t="s">
         <v>418</v>
       </c>
-      <c r="D23" s="175"/>
+      <c r="D23" s="174"/>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
       <c r="G23" s="66" t="s">
@@ -11881,10 +11935,10 @@
         <f t="shared" si="1"/>
         <v>0014</v>
       </c>
-      <c r="C24" s="220" t="s">
+      <c r="C24" s="110" t="s">
         <v>419</v>
       </c>
-      <c r="D24" s="175"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
       <c r="G24" s="66" t="s">
@@ -11911,10 +11965,10 @@
         <f t="shared" si="1"/>
         <v>0015</v>
       </c>
-      <c r="C25" s="220" t="s">
+      <c r="C25" s="110" t="s">
         <v>420</v>
       </c>
-      <c r="D25" s="175"/>
+      <c r="D25" s="174"/>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
       <c r="G25" s="66" t="s">
@@ -11941,10 +11995,10 @@
         <f t="shared" si="1"/>
         <v>0016</v>
       </c>
-      <c r="C26" s="220" t="s">
+      <c r="C26" s="110" t="s">
         <v>421</v>
       </c>
-      <c r="D26" s="175"/>
+      <c r="D26" s="174"/>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
       <c r="G26" s="66" t="s">
@@ -11971,10 +12025,10 @@
         <f t="shared" si="1"/>
         <v>0017</v>
       </c>
-      <c r="C27" s="220" t="s">
+      <c r="C27" s="110" t="s">
         <v>422</v>
       </c>
-      <c r="D27" s="176"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
       <c r="G27" s="96" t="s">
@@ -12001,10 +12055,10 @@
         <f t="shared" si="1"/>
         <v>0018</v>
       </c>
-      <c r="C28" s="223" t="s">
+      <c r="C28" s="113" t="s">
         <v>423</v>
       </c>
-      <c r="D28" s="165" t="s">
+      <c r="D28" s="170" t="s">
         <v>307</v>
       </c>
       <c r="E28" s="73"/>
@@ -12033,10 +12087,10 @@
         <f t="shared" si="1"/>
         <v>0019</v>
       </c>
-      <c r="C29" s="223" t="s">
+      <c r="C29" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="D29" s="166"/>
+      <c r="D29" s="171"/>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
       <c r="G29" s="96" t="s">
@@ -12063,10 +12117,10 @@
         <f t="shared" si="1"/>
         <v>001A</v>
       </c>
-      <c r="C30" s="223" t="s">
+      <c r="C30" s="113" t="s">
         <v>425</v>
       </c>
-      <c r="D30" s="166"/>
+      <c r="D30" s="171"/>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
       <c r="G30" s="96" t="s">
@@ -12093,10 +12147,10 @@
         <f t="shared" si="1"/>
         <v>001B</v>
       </c>
-      <c r="C31" s="223" t="s">
+      <c r="C31" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="171"/>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
       <c r="G31" s="96" t="s">
@@ -12123,10 +12177,10 @@
         <f t="shared" si="1"/>
         <v>001C</v>
       </c>
-      <c r="C32" s="223" t="s">
+      <c r="C32" s="113" t="s">
         <v>427</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="171"/>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
       <c r="G32" s="96" t="s">
@@ -12153,10 +12207,10 @@
         <f t="shared" si="1"/>
         <v>001D</v>
       </c>
-      <c r="C33" s="223" t="s">
+      <c r="C33" s="113" t="s">
         <v>428</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="171"/>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
       <c r="G33" s="66" t="s">
@@ -12183,10 +12237,10 @@
         <f t="shared" si="1"/>
         <v>001E</v>
       </c>
-      <c r="C34" s="223" t="s">
+      <c r="C34" s="113" t="s">
         <v>429</v>
       </c>
-      <c r="D34" s="166"/>
+      <c r="D34" s="171"/>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
       <c r="G34" s="96" t="s">
@@ -12213,10 +12267,10 @@
         <f t="shared" si="1"/>
         <v>001F</v>
       </c>
-      <c r="C35" s="223" t="s">
+      <c r="C35" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="D35" s="167"/>
+      <c r="D35" s="172"/>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
       <c r="G35" s="96" t="s">
@@ -12246,7 +12300,7 @@
       <c r="C36" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D36" s="180" t="s">
+      <c r="D36" s="179" t="s">
         <v>777</v>
       </c>
       <c r="E36" s="73"/>
@@ -12275,7 +12329,7 @@
       <c r="C37" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D37" s="180"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
       <c r="H37" s="73"/>
@@ -12302,7 +12356,7 @@
       <c r="C38" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D38" s="180"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
       <c r="H38" s="73"/>
@@ -12329,7 +12383,7 @@
       <c r="C39" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D39" s="180"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="73"/>
       <c r="F39" s="73"/>
       <c r="H39" s="73"/>
@@ -12356,7 +12410,7 @@
       <c r="C40" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="D40" s="180"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="73"/>
       <c r="F40" s="73"/>
       <c r="H40" s="73"/>
@@ -12383,7 +12437,7 @@
       <c r="C41" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="D41" s="180"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="73"/>
       <c r="F41" s="73"/>
       <c r="H41" s="73"/>
@@ -12410,7 +12464,7 @@
       <c r="C42" s="71" t="s">
         <v>255</v>
       </c>
-      <c r="D42" s="177" t="s">
+      <c r="D42" s="176" t="s">
         <v>262</v>
       </c>
       <c r="E42" s="73"/>
@@ -12444,7 +12498,7 @@
       <c r="C43" s="71" t="s">
         <v>256</v>
       </c>
-      <c r="D43" s="179"/>
+      <c r="D43" s="178"/>
       <c r="E43" s="73"/>
       <c r="F43" s="75">
         <v>1</v>
@@ -12476,7 +12530,7 @@
       <c r="C44" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D44" s="174" t="s">
+      <c r="D44" s="173" t="s">
         <v>1431</v>
       </c>
       <c r="E44" s="73"/>
@@ -12506,7 +12560,7 @@
       <c r="C45" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D45" s="175"/>
+      <c r="D45" s="174"/>
       <c r="E45" s="73"/>
       <c r="F45" s="73"/>
       <c r="G45" s="73"/>
@@ -12534,7 +12588,7 @@
       <c r="C46" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="D46" s="175"/>
+      <c r="D46" s="174"/>
       <c r="E46" s="73"/>
       <c r="F46" s="73"/>
       <c r="G46" s="73"/>
@@ -12559,10 +12613,10 @@
         <f t="shared" si="1"/>
         <v>002B</v>
       </c>
-      <c r="C47" s="222" t="s">
+      <c r="C47" s="112" t="s">
         <v>1254</v>
       </c>
-      <c r="D47" s="175"/>
+      <c r="D47" s="174"/>
       <c r="E47" s="73"/>
       <c r="F47" s="73"/>
       <c r="G47" s="66" t="s">
@@ -12589,10 +12643,10 @@
         <f t="shared" si="1"/>
         <v>002C</v>
       </c>
-      <c r="C48" s="222" t="s">
+      <c r="C48" s="112" t="s">
         <v>1253</v>
       </c>
-      <c r="D48" s="175"/>
+      <c r="D48" s="174"/>
       <c r="E48" s="73"/>
       <c r="F48" s="73"/>
       <c r="G48" s="66" t="s">
@@ -12619,10 +12673,10 @@
         <f t="shared" si="1"/>
         <v>002D</v>
       </c>
-      <c r="C49" s="222" t="s">
+      <c r="C49" s="112" t="s">
         <v>1255</v>
       </c>
-      <c r="D49" s="175"/>
+      <c r="D49" s="174"/>
       <c r="E49" s="73"/>
       <c r="F49" s="73"/>
       <c r="G49" s="66" t="s">
@@ -12649,10 +12703,10 @@
         <f t="shared" si="1"/>
         <v>002E</v>
       </c>
-      <c r="C50" s="222" t="s">
+      <c r="C50" s="112" t="s">
         <v>1256</v>
       </c>
-      <c r="D50" s="175"/>
+      <c r="D50" s="174"/>
       <c r="E50" s="73"/>
       <c r="F50" s="73"/>
       <c r="G50" s="66" t="s">
@@ -12679,10 +12733,10 @@
         <f t="shared" si="1"/>
         <v>002F</v>
       </c>
-      <c r="C51" s="222" t="s">
+      <c r="C51" s="112" t="s">
         <v>1257</v>
       </c>
-      <c r="D51" s="176"/>
+      <c r="D51" s="175"/>
       <c r="E51" s="73"/>
       <c r="F51" s="73"/>
       <c r="G51" s="66" t="s">
@@ -12712,7 +12766,7 @@
       <c r="C52" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="D52" s="177" t="s">
+      <c r="D52" s="176" t="s">
         <v>306</v>
       </c>
       <c r="E52" s="73"/>
@@ -12744,7 +12798,7 @@
       <c r="C53" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="D53" s="178"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="73"/>
       <c r="F53" s="75">
         <v>1</v>
@@ -12774,7 +12828,7 @@
       <c r="C54" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="178"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="73"/>
       <c r="F54" s="75">
         <v>1</v>
@@ -12804,7 +12858,7 @@
       <c r="C55" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="178"/>
+      <c r="D55" s="177"/>
       <c r="E55" s="73"/>
       <c r="F55" s="75">
         <v>1</v>
@@ -12834,7 +12888,7 @@
       <c r="C56" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="D56" s="178"/>
+      <c r="D56" s="177"/>
       <c r="E56" s="73"/>
       <c r="F56" s="75">
         <v>1</v>
@@ -12864,7 +12918,7 @@
       <c r="C57" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="D57" s="178"/>
+      <c r="D57" s="177"/>
       <c r="E57" s="73"/>
       <c r="F57" s="75">
         <v>1</v>
@@ -12894,7 +12948,7 @@
       <c r="C58" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="178"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="73"/>
       <c r="F58" s="75">
         <v>1</v>
@@ -12924,7 +12978,7 @@
       <c r="C59" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="D59" s="178"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="73"/>
       <c r="F59" s="75">
         <v>1</v>
@@ -12954,7 +13008,7 @@
       <c r="C60" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="D60" s="178"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="73"/>
       <c r="F60" s="75">
         <v>1</v>
@@ -12984,7 +13038,7 @@
       <c r="C61" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="D61" s="178"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="73"/>
       <c r="F61" s="75">
         <v>1</v>
@@ -13014,7 +13068,7 @@
       <c r="C62" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="D62" s="178"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="73"/>
       <c r="F62" s="75">
         <v>1</v>
@@ -13044,7 +13098,7 @@
       <c r="C63" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="D63" s="178"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="73"/>
       <c r="F63" s="75">
         <v>1</v>
@@ -13074,7 +13128,7 @@
       <c r="C64" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="D64" s="178"/>
+      <c r="D64" s="177"/>
       <c r="E64" s="73"/>
       <c r="F64" s="75">
         <v>1</v>
@@ -13104,7 +13158,7 @@
       <c r="C65" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="D65" s="178"/>
+      <c r="D65" s="177"/>
       <c r="E65" s="73"/>
       <c r="F65" s="75">
         <v>1</v>
@@ -13134,7 +13188,7 @@
       <c r="C66" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="D66" s="178"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="73"/>
       <c r="F66" s="75">
         <v>1</v>
@@ -13164,7 +13218,7 @@
       <c r="C67" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="D67" s="179"/>
+      <c r="D67" s="178"/>
       <c r="E67" s="73"/>
       <c r="F67" s="75">
         <v>1</v>
@@ -13231,7 +13285,7 @@
       <c r="C71" s="68" t="s">
         <v>1286</v>
       </c>
-      <c r="D71" s="174" t="s">
+      <c r="D71" s="173" t="s">
         <v>1430</v>
       </c>
       <c r="F71" s="5">
@@ -13277,7 +13331,7 @@
       <c r="C72" s="68" t="s">
         <v>406</v>
       </c>
-      <c r="D72" s="175"/>
+      <c r="D72" s="174"/>
       <c r="E72"/>
       <c r="F72">
         <v>1</v>
@@ -13303,7 +13357,7 @@
       <c r="C73" s="68" t="s">
         <v>407</v>
       </c>
-      <c r="D73" s="175"/>
+      <c r="D73" s="174"/>
       <c r="E73"/>
       <c r="F73">
         <v>1</v>
@@ -13326,7 +13380,7 @@
       <c r="C74" s="68" t="s">
         <v>408</v>
       </c>
-      <c r="D74" s="175"/>
+      <c r="D74" s="174"/>
       <c r="E74"/>
       <c r="F74">
         <v>1</v>
@@ -13346,10 +13400,10 @@
         <f t="shared" si="5"/>
         <v>0044</v>
       </c>
-      <c r="C75" s="220" t="s">
+      <c r="C75" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="D75" s="175"/>
+      <c r="D75" s="174"/>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75" s="56" t="s">
@@ -13369,10 +13423,10 @@
         <f t="shared" si="5"/>
         <v>0045</v>
       </c>
-      <c r="C76" s="220" t="s">
+      <c r="C76" s="110" t="s">
         <v>410</v>
       </c>
-      <c r="D76" s="175"/>
+      <c r="D76" s="174"/>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76" s="56" t="s">
@@ -13392,10 +13446,10 @@
         <f t="shared" si="5"/>
         <v>0046</v>
       </c>
-      <c r="C77" s="220" t="s">
+      <c r="C77" s="110" t="s">
         <v>411</v>
       </c>
-      <c r="D77" s="175"/>
+      <c r="D77" s="174"/>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77" s="56" t="s">
@@ -13415,10 +13469,10 @@
         <f t="shared" si="5"/>
         <v>0047</v>
       </c>
-      <c r="C78" s="220" t="s">
+      <c r="C78" s="110" t="s">
         <v>412</v>
       </c>
-      <c r="D78" s="175"/>
+      <c r="D78" s="174"/>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78" s="56" t="s">
@@ -13438,10 +13492,10 @@
         <f t="shared" si="5"/>
         <v>0048</v>
       </c>
-      <c r="C79" s="221" t="s">
+      <c r="C79" s="111" t="s">
         <v>413</v>
       </c>
-      <c r="D79" s="175"/>
+      <c r="D79" s="174"/>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79" s="56" t="s">
@@ -13461,10 +13515,10 @@
         <f t="shared" si="5"/>
         <v>0049</v>
       </c>
-      <c r="C80" s="221" t="s">
+      <c r="C80" s="111" t="s">
         <v>414</v>
       </c>
-      <c r="D80" s="175"/>
+      <c r="D80" s="174"/>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80" s="56" t="s">
@@ -13484,10 +13538,10 @@
         <f t="shared" si="5"/>
         <v>004A</v>
       </c>
-      <c r="C81" s="221" t="s">
+      <c r="C81" s="111" t="s">
         <v>415</v>
       </c>
-      <c r="D81" s="175"/>
+      <c r="D81" s="174"/>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81" s="56" t="s">
@@ -13507,10 +13561,10 @@
         <f t="shared" si="5"/>
         <v>004B</v>
       </c>
-      <c r="C82" s="221" t="s">
+      <c r="C82" s="111" t="s">
         <v>416</v>
       </c>
-      <c r="D82" s="175"/>
+      <c r="D82" s="174"/>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82" s="56" t="s">
@@ -13530,10 +13584,10 @@
         <f t="shared" si="5"/>
         <v>004C</v>
       </c>
-      <c r="C83" s="221" t="s">
+      <c r="C83" s="111" t="s">
         <v>1394</v>
       </c>
-      <c r="D83" s="175"/>
+      <c r="D83" s="174"/>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83" s="56" t="s">
@@ -13553,10 +13607,10 @@
         <f t="shared" si="5"/>
         <v>004D</v>
       </c>
-      <c r="C84" s="221" t="s">
+      <c r="C84" s="111" t="s">
         <v>1395</v>
       </c>
-      <c r="D84" s="175"/>
+      <c r="D84" s="174"/>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84" s="56" t="s">
@@ -13576,10 +13630,10 @@
         <f t="shared" si="5"/>
         <v>004E</v>
       </c>
-      <c r="C85" s="221" t="s">
+      <c r="C85" s="111" t="s">
         <v>1396</v>
       </c>
-      <c r="D85" s="175"/>
+      <c r="D85" s="174"/>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85" s="56" t="s">
@@ -13599,10 +13653,10 @@
         <f t="shared" si="5"/>
         <v>004F</v>
       </c>
-      <c r="C86" s="221" t="s">
+      <c r="C86" s="111" t="s">
         <v>1397</v>
       </c>
-      <c r="D86" s="175"/>
+      <c r="D86" s="174"/>
       <c r="G86" s="56" t="s">
         <v>257</v>
       </c>
@@ -14526,16 +14580,19 @@
       <c r="C138" s="70" t="s">
         <v>1614</v>
       </c>
-      <c r="D138" s="165" t="s">
+      <c r="D138" s="170" t="s">
         <v>1627</v>
       </c>
-      <c r="E138" s="163" t="s">
+      <c r="E138" s="182" t="s">
         <v>1644</v>
       </c>
       <c r="F138" s="108" t="s">
         <v>1647</v>
       </c>
       <c r="G138" s="96"/>
+      <c r="I138" s="30" t="s">
+        <v>1654</v>
+      </c>
     </row>
     <row r="139" spans="1:11" ht="12.75" customHeight="1">
       <c r="A139" s="85" t="str">
@@ -14549,15 +14606,19 @@
       <c r="C139" s="70" t="s">
         <v>1615</v>
       </c>
-      <c r="D139" s="166"/>
-      <c r="E139" s="164"/>
+      <c r="D139" s="171"/>
+      <c r="E139" s="183"/>
       <c r="F139" s="108" t="s">
         <v>1643</v>
       </c>
       <c r="G139" s="96"/>
       <c r="H139" s="56"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
+      <c r="I139" s="229" t="s">
+        <v>1652</v>
+      </c>
+      <c r="J139" s="229" t="s">
+        <v>1653</v>
+      </c>
       <c r="K139" s="4"/>
     </row>
     <row r="140" spans="1:11" ht="12.75" customHeight="1">
@@ -14572,13 +14633,18 @@
       <c r="C140" s="70" t="s">
         <v>1617</v>
       </c>
-      <c r="D140" s="166"/>
-      <c r="E140" s="164"/>
+      <c r="D140" s="171"/>
+      <c r="E140" s="183"/>
       <c r="F140"/>
       <c r="G140" s="66"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+      <c r="I140" s="230">
+        <v>3</v>
+      </c>
+      <c r="J140" s="231" t="str">
+        <f>DEC2HEX(128+(I140-1)*19,4)</f>
+        <v>00A6</v>
+      </c>
       <c r="K140" s="4"/>
     </row>
     <row r="141" spans="1:11" ht="12.75" customHeight="1">
@@ -14593,8 +14659,8 @@
       <c r="C141" s="70" t="s">
         <v>1618</v>
       </c>
-      <c r="D141" s="166"/>
-      <c r="E141" s="164"/>
+      <c r="D141" s="171"/>
+      <c r="E141" s="183"/>
       <c r="F141"/>
       <c r="G141" s="66"/>
       <c r="H141" s="56"/>
@@ -14614,8 +14680,8 @@
       <c r="C142" s="70" t="s">
         <v>1619</v>
       </c>
-      <c r="D142" s="166"/>
-      <c r="E142" s="164"/>
+      <c r="D142" s="171"/>
+      <c r="E142" s="183"/>
       <c r="F142"/>
       <c r="G142" s="66"/>
       <c r="H142" s="56"/>
@@ -14635,8 +14701,8 @@
       <c r="C143" s="70" t="s">
         <v>1620</v>
       </c>
-      <c r="D143" s="166"/>
-      <c r="E143" s="164"/>
+      <c r="D143" s="171"/>
+      <c r="E143" s="183"/>
       <c r="F143"/>
       <c r="G143" s="66"/>
       <c r="H143" s="56"/>
@@ -14656,8 +14722,8 @@
       <c r="C144" s="70" t="s">
         <v>1621</v>
       </c>
-      <c r="D144" s="166"/>
-      <c r="E144" s="164"/>
+      <c r="D144" s="171"/>
+      <c r="E144" s="183"/>
       <c r="F144"/>
       <c r="G144" s="30"/>
       <c r="H144" s="56"/>
@@ -14677,8 +14743,8 @@
       <c r="C145" s="70" t="s">
         <v>1622</v>
       </c>
-      <c r="D145" s="166"/>
-      <c r="E145" s="164"/>
+      <c r="D145" s="171"/>
+      <c r="E145" s="183"/>
       <c r="F145"/>
       <c r="G145" s="66"/>
       <c r="H145" s="56"/>
@@ -14698,8 +14764,8 @@
       <c r="C146" s="70" t="s">
         <v>1623</v>
       </c>
-      <c r="D146" s="166"/>
-      <c r="E146" s="164"/>
+      <c r="D146" s="171"/>
+      <c r="E146" s="183"/>
       <c r="F146"/>
       <c r="G146" s="78"/>
       <c r="H146" s="56"/>
@@ -14719,25 +14785,25 @@
       <c r="C147" s="70" t="s">
         <v>1624</v>
       </c>
-      <c r="D147" s="166"/>
-      <c r="E147" s="164"/>
+      <c r="D147" s="171"/>
+      <c r="E147" s="183"/>
       <c r="F147"/>
-      <c r="G147" s="226">
+      <c r="G147" s="188">
+        <v>0</v>
+      </c>
+      <c r="H147" s="188"/>
+      <c r="I147" s="189">
+        <v>0</v>
+      </c>
+      <c r="J147" s="189"/>
+      <c r="K147" s="189">
+        <v>0</v>
+      </c>
+      <c r="L147" s="189"/>
+      <c r="M147" s="188">
         <v>1</v>
       </c>
-      <c r="H147" s="226"/>
-      <c r="I147" s="227">
-        <v>1</v>
-      </c>
-      <c r="J147" s="227"/>
-      <c r="K147" s="227">
-        <v>1</v>
-      </c>
-      <c r="L147" s="227"/>
-      <c r="M147" s="226">
-        <v>1</v>
-      </c>
-      <c r="N147" s="226"/>
+      <c r="N147" s="188"/>
       <c r="P147" s="30" t="s">
         <v>1650</v>
       </c>
@@ -14754,38 +14820,38 @@
       <c r="C148" s="70" t="s">
         <v>1625</v>
       </c>
-      <c r="D148" s="166"/>
-      <c r="E148" s="164"/>
+      <c r="D148" s="171"/>
+      <c r="E148" s="183"/>
       <c r="F148"/>
-      <c r="G148" s="228">
+      <c r="G148" s="116">
         <f>IF(G147=2,1,0)</f>
         <v>0</v>
       </c>
-      <c r="H148" s="228">
+      <c r="H148" s="116">
         <f>IF(G147=1,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I148" s="116">
+        <v>0</v>
+      </c>
+      <c r="J148" s="116">
         <v>1</v>
       </c>
-      <c r="I148" s="228">
+      <c r="K148" s="116">
         <v>0</v>
       </c>
-      <c r="J148" s="228">
+      <c r="L148" s="116">
         <v>1</v>
       </c>
-      <c r="K148" s="228">
+      <c r="M148" s="116">
         <v>0</v>
       </c>
-      <c r="L148" s="228">
+      <c r="N148" s="116">
         <v>1</v>
       </c>
-      <c r="M148" s="228">
-        <v>0</v>
-      </c>
-      <c r="N148" s="228">
-        <v>1</v>
-      </c>
-      <c r="O148" s="225" t="str">
+      <c r="O148" s="115" t="str">
         <f>DEC2HEX(N148+M148*2+L148*4+K148*8+J148*16+I148*32+H148*64+G148*128.2)</f>
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="P148" s="30" t="s">
         <v>1651</v>
@@ -14803,8 +14869,8 @@
       <c r="C149" s="70" t="s">
         <v>1626</v>
       </c>
-      <c r="D149" s="167"/>
-      <c r="E149" s="164"/>
+      <c r="D149" s="172"/>
+      <c r="E149" s="183"/>
       <c r="F149"/>
       <c r="G149" s="56" t="s">
         <v>1293</v>
@@ -14843,10 +14909,10 @@
       <c r="C150" s="101" t="s">
         <v>1628</v>
       </c>
-      <c r="D150" s="168" t="s">
+      <c r="D150" s="184" t="s">
         <v>1631</v>
       </c>
-      <c r="E150" s="164"/>
+      <c r="E150" s="183"/>
       <c r="F150"/>
       <c r="G150" s="107" t="s">
         <v>1632</v>
@@ -14897,8 +14963,8 @@
       <c r="C151" s="101" t="s">
         <v>1629</v>
       </c>
-      <c r="D151" s="169"/>
-      <c r="E151" s="164"/>
+      <c r="D151" s="185"/>
+      <c r="E151" s="183"/>
       <c r="F151"/>
       <c r="G151" s="107" t="s">
         <v>1622</v>
@@ -14949,8 +15015,8 @@
       <c r="C152" s="101" t="s">
         <v>1630</v>
       </c>
-      <c r="D152" s="170"/>
-      <c r="E152" s="164"/>
+      <c r="D152" s="186"/>
+      <c r="E152" s="183"/>
       <c r="F152"/>
       <c r="G152" s="107" t="s">
         <v>1626</v>
@@ -15001,23 +15067,23 @@
       <c r="C153" s="70" t="s">
         <v>1648</v>
       </c>
-      <c r="D153" s="162" t="s">
+      <c r="D153" s="181" t="s">
         <v>1642</v>
       </c>
-      <c r="E153" s="164"/>
+      <c r="E153" s="183"/>
       <c r="F153"/>
-      <c r="G153" s="171" t="s">
+      <c r="G153" s="187" t="s">
         <v>1639</v>
       </c>
-      <c r="H153" s="171"/>
-      <c r="I153" s="171"/>
-      <c r="J153" s="171"/>
-      <c r="K153" s="161" t="s">
+      <c r="H153" s="187"/>
+      <c r="I153" s="187"/>
+      <c r="J153" s="187"/>
+      <c r="K153" s="180" t="s">
         <v>1638</v>
       </c>
-      <c r="L153" s="161"/>
-      <c r="M153" s="161"/>
-      <c r="N153" s="161"/>
+      <c r="L153" s="180"/>
+      <c r="M153" s="180"/>
+      <c r="N153" s="180"/>
     </row>
     <row r="154" spans="1:20" ht="12.75" customHeight="1">
       <c r="A154" s="85" t="str">
@@ -15031,8 +15097,8 @@
       <c r="C154" s="70" t="s">
         <v>1649</v>
       </c>
-      <c r="D154" s="162"/>
-      <c r="E154" s="164"/>
+      <c r="D154" s="181"/>
+      <c r="E154" s="183"/>
       <c r="F154"/>
       <c r="G154" s="78"/>
       <c r="H154" s="56"/>
@@ -15055,8 +15121,8 @@
       <c r="C155" s="70" t="s">
         <v>1640</v>
       </c>
-      <c r="D155" s="162"/>
-      <c r="E155" s="164"/>
+      <c r="D155" s="181"/>
+      <c r="E155" s="183"/>
       <c r="F155"/>
       <c r="G155" s="56"/>
       <c r="H155" s="56"/>
@@ -15079,8 +15145,8 @@
       <c r="C156" s="70" t="s">
         <v>1641</v>
       </c>
-      <c r="D156" s="162"/>
-      <c r="E156" s="164"/>
+      <c r="D156" s="181"/>
+      <c r="E156" s="183"/>
       <c r="F156"/>
       <c r="G156" s="78"/>
       <c r="H156" s="56"/>
@@ -15102,7 +15168,7 @@
       </c>
       <c r="C157" s="69"/>
       <c r="D157" s="77"/>
-      <c r="E157" s="163" t="s">
+      <c r="E157" s="182" t="s">
         <v>1645</v>
       </c>
       <c r="F157"/>
@@ -15126,7 +15192,7 @@
       </c>
       <c r="C158" s="69"/>
       <c r="D158" s="77"/>
-      <c r="E158" s="164"/>
+      <c r="E158" s="183"/>
       <c r="F158"/>
       <c r="G158" s="56"/>
       <c r="H158" s="56"/>
@@ -15148,7 +15214,7 @@
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="77"/>
-      <c r="E159" s="164"/>
+      <c r="E159" s="183"/>
       <c r="F159"/>
       <c r="G159" s="56"/>
       <c r="H159" s="56"/>
@@ -15170,7 +15236,7 @@
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="77"/>
-      <c r="E160" s="164"/>
+      <c r="E160" s="183"/>
       <c r="F160"/>
       <c r="G160" s="78"/>
       <c r="H160" s="56"/>
@@ -15189,7 +15255,7 @@
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="77"/>
-      <c r="E161" s="164"/>
+      <c r="E161" s="183"/>
       <c r="F161"/>
       <c r="G161" s="56"/>
       <c r="H161" s="56"/>
@@ -15208,7 +15274,7 @@
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="77"/>
-      <c r="E162" s="164"/>
+      <c r="E162" s="183"/>
       <c r="H162" s="56"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -15225,7 +15291,7 @@
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="77"/>
-      <c r="E163" s="164"/>
+      <c r="E163" s="183"/>
       <c r="F163"/>
       <c r="H163" s="56"/>
       <c r="I163" s="4"/>
@@ -15243,7 +15309,7 @@
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="77"/>
-      <c r="E164" s="164"/>
+      <c r="E164" s="183"/>
       <c r="F164"/>
       <c r="G164" s="78"/>
       <c r="H164" s="56"/>
@@ -15262,7 +15328,7 @@
       </c>
       <c r="C165" s="69"/>
       <c r="D165" s="77"/>
-      <c r="E165" s="164"/>
+      <c r="E165" s="183"/>
       <c r="F165"/>
       <c r="G165" s="56"/>
       <c r="H165" s="56"/>
@@ -15281,7 +15347,7 @@
       </c>
       <c r="C166" s="69"/>
       <c r="D166" s="77"/>
-      <c r="E166" s="164"/>
+      <c r="E166" s="183"/>
       <c r="F166"/>
       <c r="G166" s="56"/>
       <c r="H166" s="56"/>
@@ -15300,7 +15366,7 @@
       </c>
       <c r="C167" s="69"/>
       <c r="D167" s="77"/>
-      <c r="E167" s="164"/>
+      <c r="E167" s="183"/>
       <c r="F167"/>
       <c r="G167" s="56"/>
       <c r="H167" s="56"/>
@@ -15319,7 +15385,7 @@
       </c>
       <c r="C168" s="69"/>
       <c r="D168" s="77"/>
-      <c r="E168" s="164"/>
+      <c r="E168" s="183"/>
       <c r="F168"/>
       <c r="G168" s="78"/>
       <c r="H168" s="56"/>
@@ -15338,7 +15404,7 @@
       </c>
       <c r="C169" s="69"/>
       <c r="D169" s="77"/>
-      <c r="E169" s="164"/>
+      <c r="E169" s="183"/>
       <c r="F169"/>
       <c r="G169" s="56"/>
       <c r="H169" s="56"/>
@@ -15357,7 +15423,7 @@
       </c>
       <c r="C170" s="69"/>
       <c r="D170" s="77"/>
-      <c r="E170" s="164"/>
+      <c r="E170" s="183"/>
       <c r="F170"/>
       <c r="G170" s="66"/>
       <c r="H170" s="56"/>
@@ -15376,7 +15442,7 @@
       </c>
       <c r="C171" s="69"/>
       <c r="D171" s="77"/>
-      <c r="E171" s="164"/>
+      <c r="E171" s="183"/>
       <c r="F171"/>
       <c r="G171" s="56"/>
       <c r="H171" s="56"/>
@@ -15395,7 +15461,7 @@
       </c>
       <c r="C172" s="69"/>
       <c r="D172" s="77"/>
-      <c r="E172" s="164"/>
+      <c r="E172" s="183"/>
       <c r="F172"/>
       <c r="G172" s="78"/>
       <c r="H172" s="56"/>
@@ -15414,7 +15480,7 @@
       </c>
       <c r="C173" s="69"/>
       <c r="D173" s="77"/>
-      <c r="E173" s="164"/>
+      <c r="E173" s="183"/>
       <c r="F173"/>
       <c r="G173" s="56"/>
       <c r="H173" s="56"/>
@@ -15433,7 +15499,7 @@
       </c>
       <c r="C174" s="69"/>
       <c r="D174" s="79"/>
-      <c r="E174" s="164"/>
+      <c r="E174" s="183"/>
       <c r="F174"/>
       <c r="G174" s="66"/>
       <c r="H174" s="56"/>
@@ -15452,7 +15518,7 @@
       </c>
       <c r="C175" s="81"/>
       <c r="D175" s="80"/>
-      <c r="E175" s="164"/>
+      <c r="E175" s="183"/>
       <c r="F175"/>
       <c r="G175" s="56"/>
       <c r="H175" s="56"/>
@@ -15483,8 +15549,8 @@
         <v>02CD</v>
       </c>
       <c r="C177" s="81"/>
-      <c r="D177" s="224"/>
-      <c r="E177" s="163" t="s">
+      <c r="D177" s="114"/>
+      <c r="E177" s="182" t="s">
         <v>1646</v>
       </c>
       <c r="F177"/>
@@ -15505,7 +15571,7 @@
       </c>
       <c r="C178" s="69"/>
       <c r="D178" s="79"/>
-      <c r="E178" s="164"/>
+      <c r="E178" s="183"/>
       <c r="F178"/>
       <c r="G178" s="78"/>
       <c r="H178" s="56"/>
@@ -15524,7 +15590,7 @@
       </c>
       <c r="C179" s="69"/>
       <c r="D179" s="79"/>
-      <c r="E179" s="164"/>
+      <c r="E179" s="183"/>
       <c r="F179"/>
       <c r="G179" s="56"/>
       <c r="H179" s="56"/>
@@ -15543,7 +15609,7 @@
       </c>
       <c r="C180" s="69"/>
       <c r="D180" s="79"/>
-      <c r="E180" s="164"/>
+      <c r="E180" s="183"/>
       <c r="F180"/>
       <c r="G180" s="56"/>
       <c r="H180" s="56"/>
@@ -15562,7 +15628,7 @@
       </c>
       <c r="C181" s="69"/>
       <c r="D181" s="79"/>
-      <c r="E181" s="164"/>
+      <c r="E181" s="183"/>
       <c r="F181"/>
       <c r="G181" s="56"/>
       <c r="H181" s="56"/>
@@ -15581,7 +15647,7 @@
       </c>
       <c r="C182" s="69"/>
       <c r="D182" s="79"/>
-      <c r="E182" s="164"/>
+      <c r="E182" s="183"/>
       <c r="F182"/>
       <c r="G182" s="78"/>
       <c r="H182" s="56"/>
@@ -15600,7 +15666,7 @@
       </c>
       <c r="C183" s="69"/>
       <c r="D183" s="79"/>
-      <c r="E183" s="164"/>
+      <c r="E183" s="183"/>
       <c r="F183"/>
       <c r="G183" s="56"/>
       <c r="H183" s="56"/>
@@ -15619,7 +15685,7 @@
       </c>
       <c r="C184" s="69"/>
       <c r="D184" s="79"/>
-      <c r="E184" s="164"/>
+      <c r="E184" s="183"/>
       <c r="F184"/>
       <c r="G184" s="56"/>
       <c r="H184" s="56"/>
@@ -15638,7 +15704,7 @@
       </c>
       <c r="C185" s="69"/>
       <c r="D185" s="79"/>
-      <c r="E185" s="164"/>
+      <c r="E185" s="183"/>
       <c r="F185"/>
       <c r="G185" s="56"/>
       <c r="H185" s="56"/>
@@ -15657,7 +15723,7 @@
       </c>
       <c r="C186" s="69"/>
       <c r="D186" s="79"/>
-      <c r="E186" s="164"/>
+      <c r="E186" s="183"/>
       <c r="F186"/>
       <c r="G186" s="78"/>
       <c r="H186" s="56"/>
@@ -15676,7 +15742,7 @@
       </c>
       <c r="C187" s="69"/>
       <c r="D187" s="79"/>
-      <c r="E187" s="164"/>
+      <c r="E187" s="183"/>
       <c r="F187"/>
       <c r="G187" s="56"/>
       <c r="H187" s="56"/>
@@ -15695,7 +15761,7 @@
       </c>
       <c r="C188" s="69"/>
       <c r="D188" s="79"/>
-      <c r="E188" s="164"/>
+      <c r="E188" s="183"/>
       <c r="F188"/>
       <c r="G188" s="56"/>
       <c r="H188" s="56"/>
@@ -15714,7 +15780,7 @@
       </c>
       <c r="C189" s="69"/>
       <c r="D189" s="79"/>
-      <c r="E189" s="164"/>
+      <c r="E189" s="183"/>
       <c r="F189"/>
       <c r="G189" s="56"/>
       <c r="H189" s="56"/>
@@ -15733,7 +15799,7 @@
       </c>
       <c r="C190" s="69"/>
       <c r="D190" s="79"/>
-      <c r="E190" s="164"/>
+      <c r="E190" s="183"/>
       <c r="F190"/>
       <c r="G190" s="78"/>
       <c r="H190" s="56"/>
@@ -15752,7 +15818,7 @@
       </c>
       <c r="C191" s="69"/>
       <c r="D191" s="79"/>
-      <c r="E191" s="164"/>
+      <c r="E191" s="183"/>
       <c r="F191"/>
       <c r="G191" s="56"/>
       <c r="H191" s="56"/>
@@ -15771,7 +15837,7 @@
       </c>
       <c r="C192" s="69"/>
       <c r="D192" s="79"/>
-      <c r="E192" s="164"/>
+      <c r="E192" s="183"/>
       <c r="F192"/>
       <c r="G192" s="56"/>
       <c r="H192" s="56"/>
@@ -15790,7 +15856,7 @@
       </c>
       <c r="C193" s="69"/>
       <c r="D193" s="79"/>
-      <c r="E193" s="164"/>
+      <c r="E193" s="183"/>
       <c r="F193"/>
       <c r="G193" s="56"/>
       <c r="H193" s="56"/>
@@ -15809,7 +15875,7 @@
       </c>
       <c r="C194" s="69"/>
       <c r="D194" s="79"/>
-      <c r="E194" s="164"/>
+      <c r="E194" s="183"/>
       <c r="F194"/>
       <c r="G194" s="78"/>
       <c r="H194" s="56"/>
@@ -15828,7 +15894,7 @@
       </c>
       <c r="C195" s="69"/>
       <c r="D195" s="80"/>
-      <c r="E195" s="164"/>
+      <c r="E195" s="183"/>
       <c r="F195"/>
       <c r="G195" s="56"/>
       <c r="H195" s="56"/>
@@ -19119,7 +19185,7 @@
     </row>
     <row r="459" spans="1:2" ht="12.75" customHeight="1">
       <c r="A459" s="85" t="str">
-        <f t="shared" ref="A459:A486" si="16">DEC2HEX(HEX2DEC(A458)+1,6)</f>
+        <f t="shared" ref="A459:A483" si="16">DEC2HEX(HEX2DEC(A458)+1,6)</f>
         <v>F003E7</v>
       </c>
       <c r="B459" s="85" t="str">
@@ -19378,15 +19444,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D5:D11"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="D20:D27"/>
-    <mergeCell ref="D71:D86"/>
-    <mergeCell ref="D28:D35"/>
-    <mergeCell ref="D52:D67"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D44:D51"/>
-    <mergeCell ref="D36:D41"/>
     <mergeCell ref="K153:N153"/>
     <mergeCell ref="D153:D156"/>
     <mergeCell ref="E138:E156"/>
@@ -19399,6 +19456,15 @@
     <mergeCell ref="I147:J147"/>
     <mergeCell ref="K147:L147"/>
     <mergeCell ref="M147:N147"/>
+    <mergeCell ref="D5:D11"/>
+    <mergeCell ref="D12:D19"/>
+    <mergeCell ref="D20:D27"/>
+    <mergeCell ref="D71:D86"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="D52:D67"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D44:D51"/>
+    <mergeCell ref="D36:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -19534,11 +19600,11 @@
       <c r="R5" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="T5" s="181" t="s">
+      <c r="T5" s="198" t="s">
         <v>1536</v>
       </c>
-      <c r="U5" s="181"/>
-      <c r="V5" s="181"/>
+      <c r="U5" s="198"/>
+      <c r="V5" s="198"/>
       <c r="AA5" s="39" t="s">
         <v>779</v>
       </c>
@@ -19567,9 +19633,9 @@
       <c r="R6" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="T6" s="181"/>
-      <c r="U6" s="181"/>
-      <c r="V6" s="181"/>
+      <c r="T6" s="198"/>
+      <c r="U6" s="198"/>
+      <c r="V6" s="198"/>
       <c r="AA6" s="39" t="s">
         <v>780</v>
       </c>
@@ -19600,9 +19666,9 @@
       <c r="R7" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="T7" s="181"/>
-      <c r="U7" s="181"/>
-      <c r="V7" s="181"/>
+      <c r="T7" s="198"/>
+      <c r="U7" s="198"/>
+      <c r="V7" s="198"/>
       <c r="AA7" s="39" t="s">
         <v>781</v>
       </c>
@@ -19633,9 +19699,9 @@
       <c r="R8" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="T8" s="181"/>
-      <c r="U8" s="181"/>
-      <c r="V8" s="181"/>
+      <c r="T8" s="198"/>
+      <c r="U8" s="198"/>
+      <c r="V8" s="198"/>
       <c r="AA8" s="39" t="s">
         <v>782</v>
       </c>
@@ -19666,9 +19732,9 @@
       <c r="R9" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
+      <c r="T9" s="198"/>
+      <c r="U9" s="198"/>
+      <c r="V9" s="198"/>
       <c r="AA9" s="39" t="s">
         <v>783</v>
       </c>
@@ -19721,11 +19787,11 @@
       <c r="R10" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="T10" s="200" t="s">
+      <c r="T10" s="205" t="s">
         <v>1566</v>
       </c>
-      <c r="U10" s="201"/>
-      <c r="V10" s="202"/>
+      <c r="U10" s="206"/>
+      <c r="V10" s="207"/>
       <c r="AA10" s="39" t="s">
         <v>784</v>
       </c>
@@ -19785,11 +19851,11 @@
         <v>220</v>
       </c>
       <c r="S11" s="43"/>
-      <c r="T11" s="200" t="s">
+      <c r="T11" s="205" t="s">
         <v>1567</v>
       </c>
-      <c r="U11" s="201"/>
-      <c r="V11" s="202"/>
+      <c r="U11" s="206"/>
+      <c r="V11" s="207"/>
       <c r="AA11" s="39" t="s">
         <v>785</v>
       </c>
@@ -19852,11 +19918,11 @@
       <c r="R12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="T12" s="214" t="s">
+      <c r="T12" s="199" t="s">
         <v>1250</v>
       </c>
-      <c r="U12" s="215"/>
-      <c r="V12" s="216"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="201"/>
       <c r="X12" s="62"/>
       <c r="AA12" s="39" t="s">
         <v>786</v>
@@ -19918,9 +19984,9 @@
       <c r="R13" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="T13" s="209"/>
-      <c r="U13" s="210"/>
-      <c r="V13" s="211"/>
+      <c r="T13" s="193"/>
+      <c r="U13" s="194"/>
+      <c r="V13" s="195"/>
       <c r="X13" s="46"/>
       <c r="AA13" s="39" t="s">
         <v>787</v>
@@ -19982,11 +20048,11 @@
       <c r="R14" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="T14" s="188" t="s">
+      <c r="T14" s="190" t="s">
         <v>1251</v>
       </c>
-      <c r="U14" s="189"/>
-      <c r="V14" s="190"/>
+      <c r="U14" s="191"/>
+      <c r="V14" s="192"/>
       <c r="AA14" s="39" t="s">
         <v>788</v>
       </c>
@@ -20047,11 +20113,11 @@
       <c r="R15" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="T15" s="217" t="s">
+      <c r="T15" s="202" t="s">
         <v>1252</v>
       </c>
-      <c r="U15" s="218"/>
-      <c r="V15" s="219"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="204"/>
       <c r="X15" s="12"/>
       <c r="AA15" s="39" t="s">
         <v>789</v>
@@ -20094,11 +20160,11 @@
       <c r="R16" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="T16" s="200" t="s">
+      <c r="T16" s="205" t="s">
         <v>1562</v>
       </c>
-      <c r="U16" s="201"/>
-      <c r="V16" s="202"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="207"/>
       <c r="X16" s="12"/>
       <c r="AA16" s="39" t="s">
         <v>790</v>
@@ -20132,11 +20198,11 @@
       <c r="R17" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="T17" s="191" t="s">
+      <c r="T17" s="214" t="s">
         <v>1479</v>
       </c>
-      <c r="U17" s="192"/>
-      <c r="V17" s="193"/>
+      <c r="U17" s="215"/>
+      <c r="V17" s="216"/>
       <c r="W17" s="61"/>
       <c r="X17" s="61"/>
       <c r="AA17" s="39" t="s">
@@ -20198,9 +20264,9 @@
       <c r="R18" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="T18" s="194"/>
-      <c r="U18" s="195"/>
-      <c r="V18" s="196"/>
+      <c r="T18" s="217"/>
+      <c r="U18" s="218"/>
+      <c r="V18" s="219"/>
       <c r="W18" s="61"/>
       <c r="X18" s="61"/>
       <c r="AA18" s="39" t="s">
@@ -20262,9 +20328,9 @@
       <c r="R19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="T19" s="194"/>
-      <c r="U19" s="195"/>
-      <c r="V19" s="196"/>
+      <c r="T19" s="217"/>
+      <c r="U19" s="218"/>
+      <c r="V19" s="219"/>
       <c r="W19" s="61"/>
       <c r="X19" s="61"/>
       <c r="AA19" s="39" t="s">
@@ -20329,9 +20395,9 @@
       <c r="R20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T20" s="197"/>
-      <c r="U20" s="198"/>
-      <c r="V20" s="199"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="221"/>
+      <c r="V20" s="222"/>
       <c r="AA20" s="39" t="s">
         <v>794</v>
       </c>
@@ -20400,11 +20466,11 @@
       <c r="R23" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="T23" s="212" t="s">
+      <c r="T23" s="196" t="s">
         <v>535</v>
       </c>
-      <c r="U23" s="212"/>
-      <c r="V23" s="212"/>
+      <c r="U23" s="196"/>
+      <c r="V23" s="196"/>
       <c r="W23" s="43" t="s">
         <v>1110</v>
       </c>
@@ -20464,11 +20530,11 @@
       <c r="R24" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="T24" s="213" t="s">
+      <c r="T24" s="197" t="s">
         <v>536</v>
       </c>
-      <c r="U24" s="213"/>
-      <c r="V24" s="213"/>
+      <c r="U24" s="197"/>
+      <c r="V24" s="197"/>
       <c r="W24" s="43" t="s">
         <v>1225</v>
       </c>
@@ -20529,9 +20595,9 @@
       <c r="R25" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="T25" s="213"/>
-      <c r="U25" s="213"/>
-      <c r="V25" s="213"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="197"/>
+      <c r="V25" s="197"/>
       <c r="W25" s="43" t="s">
         <v>1146</v>
       </c>
@@ -20560,11 +20626,11 @@
       <c r="R26" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="T26" s="182" t="s">
+      <c r="T26" s="208" t="s">
         <v>1537</v>
       </c>
-      <c r="U26" s="183"/>
-      <c r="V26" s="184"/>
+      <c r="U26" s="209"/>
+      <c r="V26" s="210"/>
       <c r="W26" s="43" t="s">
         <v>1145</v>
       </c>
@@ -20593,9 +20659,9 @@
       <c r="R27" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="T27" s="185"/>
-      <c r="U27" s="186"/>
-      <c r="V27" s="187"/>
+      <c r="T27" s="211"/>
+      <c r="U27" s="212"/>
+      <c r="V27" s="213"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
     </row>
@@ -20622,9 +20688,9 @@
       <c r="R28" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="T28" s="185"/>
-      <c r="U28" s="186"/>
-      <c r="V28" s="187"/>
+      <c r="T28" s="211"/>
+      <c r="U28" s="212"/>
+      <c r="V28" s="213"/>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
     </row>
@@ -20653,9 +20719,9 @@
       <c r="R29" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="T29" s="188"/>
-      <c r="U29" s="189"/>
-      <c r="V29" s="190"/>
+      <c r="T29" s="190"/>
+      <c r="U29" s="191"/>
+      <c r="V29" s="192"/>
       <c r="W29" s="43" t="s">
         <v>1111</v>
       </c>
@@ -20716,11 +20782,11 @@
       <c r="R30" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="T30" s="203" t="s">
+      <c r="T30" s="223" t="s">
         <v>1384</v>
       </c>
-      <c r="U30" s="204"/>
-      <c r="V30" s="205"/>
+      <c r="U30" s="224"/>
+      <c r="V30" s="225"/>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
     </row>
@@ -20779,9 +20845,9 @@
       <c r="R31" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="T31" s="206"/>
-      <c r="U31" s="207"/>
-      <c r="V31" s="208"/>
+      <c r="T31" s="226"/>
+      <c r="U31" s="227"/>
+      <c r="V31" s="228"/>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
     </row>
@@ -20840,11 +20906,11 @@
       <c r="R32" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="T32" s="182" t="s">
+      <c r="T32" s="208" t="s">
         <v>1385</v>
       </c>
-      <c r="U32" s="183"/>
-      <c r="V32" s="184"/>
+      <c r="U32" s="209"/>
+      <c r="V32" s="210"/>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
@@ -20903,9 +20969,9 @@
       <c r="R33" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="T33" s="188"/>
-      <c r="U33" s="189"/>
-      <c r="V33" s="190"/>
+      <c r="T33" s="190"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="192"/>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
@@ -20964,11 +21030,11 @@
       <c r="R34" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="T34" s="181" t="s">
+      <c r="T34" s="198" t="s">
         <v>1392</v>
       </c>
-      <c r="U34" s="181"/>
-      <c r="V34" s="181"/>
+      <c r="U34" s="198"/>
+      <c r="V34" s="198"/>
     </row>
     <row r="35" spans="1:24" ht="12.95" customHeight="1">
       <c r="A35" s="3" t="s">
@@ -21025,9 +21091,9 @@
       <c r="R35" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="T35" s="181"/>
-      <c r="U35" s="181"/>
-      <c r="V35" s="181"/>
+      <c r="T35" s="198"/>
+      <c r="U35" s="198"/>
+      <c r="V35" s="198"/>
     </row>
     <row r="36" spans="1:24" ht="12.95" customHeight="1">
       <c r="A36" s="3" t="s">
@@ -21084,9 +21150,9 @@
       <c r="R36" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="T36" s="181"/>
-      <c r="U36" s="181"/>
-      <c r="V36" s="181"/>
+      <c r="T36" s="198"/>
+      <c r="U36" s="198"/>
+      <c r="V36" s="198"/>
     </row>
     <row r="37" spans="1:24" ht="12.95" customHeight="1">
       <c r="A37" s="3" t="s">
@@ -21143,9 +21209,9 @@
       <c r="R37" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="T37" s="181"/>
-      <c r="U37" s="181"/>
-      <c r="V37" s="181"/>
+      <c r="T37" s="198"/>
+      <c r="U37" s="198"/>
+      <c r="V37" s="198"/>
     </row>
     <row r="38" spans="1:24" ht="12.95" customHeight="1">
       <c r="A38" s="3" t="s">
@@ -21174,9 +21240,9 @@
       <c r="R38" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="T38" s="181"/>
-      <c r="U38" s="181"/>
-      <c r="V38" s="181"/>
+      <c r="T38" s="198"/>
+      <c r="U38" s="198"/>
+      <c r="V38" s="198"/>
     </row>
     <row r="39" spans="1:24" ht="12.95" customHeight="1"/>
     <row r="40" spans="1:24" ht="12.95" customHeight="1">
@@ -26877,6 +26943,12 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="15">
+    <mergeCell ref="T34:V38"/>
+    <mergeCell ref="T26:V29"/>
+    <mergeCell ref="T17:V20"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="T32:V33"/>
+    <mergeCell ref="T30:V31"/>
     <mergeCell ref="T14:V14"/>
     <mergeCell ref="T13:V13"/>
     <mergeCell ref="T23:V23"/>
@@ -26886,12 +26958,6 @@
     <mergeCell ref="T15:V15"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T34:V38"/>
-    <mergeCell ref="T26:V29"/>
-    <mergeCell ref="T17:V20"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="T32:V33"/>
-    <mergeCell ref="T30:V31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.98425196850393704" right="0.39370078740157483" top="1.3779527559055118" bottom="0.98425196850393704" header="0.70866141732283472" footer="0.31496062992125984"/>
